--- a/words_CZ/5.xlsx
+++ b/words_CZ/5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY_progs\Learn_CZ\words_CZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630CC651-C75C-4F9F-9BAC-09186D9F7BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6599001F-2AF1-40CA-A1A2-C40DEEEB1DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="872">
   <si>
     <t>asi</t>
   </si>
@@ -126,12 +126,6 @@
     <t>venku</t>
   </si>
   <si>
-    <t>vchod</t>
-  </si>
-  <si>
-    <t>východ</t>
-  </si>
-  <si>
     <t>vystoupit</t>
   </si>
   <si>
@@ -144,51 +138,15 @@
     <t>ztratit se</t>
   </si>
   <si>
-    <t>ambasáda</t>
-  </si>
-  <si>
-    <t>посольство, амбасада</t>
-  </si>
-  <si>
     <t>embassy</t>
   </si>
   <si>
-    <t>мабуть, близько, приблизно</t>
-  </si>
-  <si>
-    <t>наверное, около, приблизительно</t>
-  </si>
-  <si>
-    <t>probably, about, approximately</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>автомобіль, авто, машина</t>
-  </si>
-  <si>
-    <t>автомобиль, машина, авто</t>
-  </si>
-  <si>
     <t>car, auto</t>
   </si>
   <si>
     <t>jet autem</t>
   </si>
   <si>
-    <t>їхати автомобілем, на машині</t>
-  </si>
-  <si>
-    <t>ехать на машине, на автомобиле</t>
-  </si>
-  <si>
-    <t>to go/travel by car</t>
-  </si>
-  <si>
-    <t>autobus</t>
-  </si>
-  <si>
     <t>автобус</t>
   </si>
   <si>
@@ -204,51 +162,30 @@
     <t>ехать на автобусе</t>
   </si>
   <si>
-    <t>to go/travel by bus</t>
-  </si>
-  <si>
-    <t>autobusový</t>
-  </si>
-  <si>
     <t>автобусний</t>
   </si>
   <si>
     <t>автобусный</t>
   </si>
   <si>
-    <t>bus (adj.)</t>
-  </si>
-  <si>
-    <t>autobusová</t>
-  </si>
-  <si>
     <t>автобусна</t>
   </si>
   <si>
     <t>автобусная</t>
   </si>
   <si>
-    <t>autobusové</t>
-  </si>
-  <si>
     <t>автобусне</t>
   </si>
   <si>
     <t>автобусное</t>
   </si>
   <si>
-    <t>banka</t>
-  </si>
-  <si>
     <t>банк</t>
   </si>
   <si>
     <t>bank</t>
   </si>
   <si>
-    <t>bankomat</t>
-  </si>
-  <si>
     <t>банкомат</t>
   </si>
   <si>
@@ -258,30 +195,12 @@
     <t>bát se</t>
   </si>
   <si>
-    <t>боятися, лякатися</t>
-  </si>
-  <si>
-    <t>бояться, пугаться</t>
-  </si>
-  <si>
     <t>to be afraid of</t>
   </si>
   <si>
     <t>bojím se</t>
   </si>
   <si>
-    <t>я боюся</t>
-  </si>
-  <si>
-    <t>я боюсь</t>
-  </si>
-  <si>
-    <t>I am afraid</t>
-  </si>
-  <si>
-    <t>bazén</t>
-  </si>
-  <si>
     <t>басейн</t>
   </si>
   <si>
@@ -291,72 +210,18 @@
     <t>swimming pool</t>
   </si>
   <si>
-    <t>близько, поруч, недалечко</t>
-  </si>
-  <si>
-    <t>близко, рядом, недалеко</t>
-  </si>
-  <si>
-    <t>near, close (by)</t>
-  </si>
-  <si>
-    <t>centrum</t>
-  </si>
-  <si>
     <t>центр</t>
   </si>
   <si>
-    <t>centre, downtown</t>
-  </si>
-  <si>
-    <t>cesta</t>
-  </si>
-  <si>
-    <t>дорога, шлях, подорож</t>
-  </si>
-  <si>
-    <t>дорога, путь, путешествие</t>
-  </si>
-  <si>
-    <t>road, way, journey</t>
-  </si>
-  <si>
     <t>Щасливої дороги.</t>
   </si>
   <si>
     <t>Счастливого пути.</t>
   </si>
   <si>
-    <t>Have a safe trip., Bon voyage.</t>
-  </si>
-  <si>
-    <t>Що?, Що таке?, Що (це значить)?</t>
-  </si>
-  <si>
-    <t>Что?, Что такое?</t>
-  </si>
-  <si>
-    <t>What? (often expressing surprise or asking for repetition)</t>
-  </si>
-  <si>
-    <t>cukrárna</t>
-  </si>
-  <si>
-    <t>цукерня, кондитерська</t>
-  </si>
-  <si>
     <t>кондитерская</t>
   </si>
   <si>
-    <t>confectionery, pastry shop</t>
-  </si>
-  <si>
-    <t>тренуватися, займатися (спортом)</t>
-  </si>
-  <si>
-    <t>тренироваться, заниматься (спортом)</t>
-  </si>
-  <si>
     <t>to exercise, to practice</t>
   </si>
   <si>
@@ -375,93 +240,33 @@
     <t>čtu</t>
   </si>
   <si>
-    <t>я читаю</t>
-  </si>
-  <si>
-    <t>I read</t>
-  </si>
-  <si>
     <t>далеко</t>
   </si>
   <si>
-    <t>far, a long way</t>
-  </si>
-  <si>
     <t>dát</t>
   </si>
   <si>
-    <t>дати, надати</t>
-  </si>
-  <si>
-    <t>дать, предоставить</t>
-  </si>
-  <si>
-    <t>to give</t>
-  </si>
-  <si>
-    <t>diskotéka</t>
-  </si>
-  <si>
     <t>дискотека</t>
   </si>
   <si>
-    <t>disco, nightclub</t>
-  </si>
-  <si>
-    <t>divadlo</t>
-  </si>
-  <si>
     <t>театр</t>
   </si>
   <si>
-    <t>theatre, theater</t>
-  </si>
-  <si>
     <t>довго</t>
   </si>
   <si>
     <t>долго</t>
   </si>
   <si>
-    <t>for a long time</t>
-  </si>
-  <si>
-    <t>досить, цілком, доволі</t>
-  </si>
-  <si>
-    <t>довольно, вполне, совсем</t>
-  </si>
-  <si>
-    <t>quite, rather, pretty</t>
-  </si>
-  <si>
     <t>доки, до якого часу</t>
   </si>
   <si>
-    <t>до какого времени</t>
-  </si>
-  <si>
-    <t>until when</t>
-  </si>
-  <si>
     <t>ліворуч, наліво</t>
   </si>
   <si>
-    <t>налево, влево</t>
-  </si>
-  <si>
-    <t>to the left</t>
-  </si>
-  <si>
     <t>вниз</t>
   </si>
   <si>
-    <t>down, downwards</t>
-  </si>
-  <si>
-    <t>domácí úkol</t>
-  </si>
-  <si>
     <t>домашнє завдання</t>
   </si>
   <si>
@@ -471,126 +276,33 @@
     <t>homework</t>
   </si>
   <si>
-    <t>domácí</t>
-  </si>
-  <si>
-    <t>домашній, вітчизняний</t>
-  </si>
-  <si>
-    <t>домашний, отечественный</t>
-  </si>
-  <si>
-    <t>home (adj.), domestic</t>
-  </si>
-  <si>
     <t>додому</t>
   </si>
   <si>
     <t>домой</t>
   </si>
   <si>
-    <t>home, homewards</t>
-  </si>
-  <si>
     <t>праворуч, направо</t>
   </si>
   <si>
-    <t>направо, вправо</t>
-  </si>
-  <si>
-    <t>to the right</t>
-  </si>
-  <si>
-    <t>всередину, увійти</t>
-  </si>
-  <si>
-    <t>внутрь, войти</t>
-  </si>
-  <si>
-    <t>inside, inwards</t>
-  </si>
-  <si>
-    <t>drogerie</t>
-  </si>
-  <si>
-    <t>дрогерія, магазин побутової хімії</t>
-  </si>
-  <si>
-    <t>магазин бытовой химии, дрогерия</t>
-  </si>
-  <si>
-    <t>drugstore, chemist's shop</t>
-  </si>
-  <si>
-    <t>dům</t>
-  </si>
-  <si>
-    <t>дім, будинок</t>
-  </si>
-  <si>
-    <t>дом, здание</t>
-  </si>
-  <si>
     <t>house, building</t>
   </si>
   <si>
-    <t>fitko</t>
-  </si>
-  <si>
-    <t>фітнес-центр, тренажерний зал</t>
-  </si>
-  <si>
-    <t>фитнес-центр, тренажерный зал</t>
-  </si>
-  <si>
-    <t>gym (informal)</t>
-  </si>
-  <si>
-    <t>fitness centrum</t>
-  </si>
-  <si>
-    <t>fitness centre, gym</t>
-  </si>
-  <si>
-    <t>galerie</t>
-  </si>
-  <si>
     <t>галерея</t>
   </si>
   <si>
     <t>gallery</t>
   </si>
   <si>
-    <t>garáž</t>
-  </si>
-  <si>
     <t>гараж</t>
   </si>
   <si>
     <t>garage</t>
   </si>
   <si>
-    <t>hora</t>
-  </si>
-  <si>
     <t>гора</t>
   </si>
   <si>
-    <t>mountain, hill</t>
-  </si>
-  <si>
-    <t>hospoda</t>
-  </si>
-  <si>
-    <t>корчма, паб, паблік</t>
-  </si>
-  <si>
-    <t>паб, трактир, пивная</t>
-  </si>
-  <si>
-    <t>pub, inn, bar</t>
-  </si>
-  <si>
     <t>hotel</t>
   </si>
   <si>
@@ -600,312 +312,99 @@
     <t>отель, гостиница</t>
   </si>
   <si>
-    <t>hrad</t>
-  </si>
-  <si>
-    <t>замок, фортеця</t>
-  </si>
-  <si>
-    <t>замок, крепость</t>
-  </si>
-  <si>
-    <t>castle, palace</t>
-  </si>
-  <si>
     <t>Chceš pomoct?</t>
   </si>
   <si>
-    <t>Хочеш допомоги?, Тобі допомогти?</t>
-  </si>
-  <si>
-    <t>Хочешь помощи?, Тебе помочь?</t>
-  </si>
-  <si>
     <t>Do you want help? (informal)</t>
   </si>
   <si>
     <t>Chcete pomoct?</t>
   </si>
   <si>
-    <t>Хочете допомоги?, Вам допомогти?</t>
-  </si>
-  <si>
-    <t>Хотите помощи?, Вам помочь?</t>
-  </si>
-  <si>
-    <t>Do you want help? (formal/plural)</t>
-  </si>
-  <si>
     <t>chtít</t>
   </si>
   <si>
-    <t>хотіти, бажати</t>
-  </si>
-  <si>
-    <t>хотеть, желать</t>
-  </si>
-  <si>
-    <t>to want, to wish</t>
-  </si>
-  <si>
     <t>chci</t>
   </si>
   <si>
-    <t>я хочу</t>
-  </si>
-  <si>
     <t>I want</t>
   </si>
   <si>
-    <t>chvíle</t>
-  </si>
-  <si>
-    <t>хвилина, мить, час</t>
-  </si>
-  <si>
-    <t>минута, миг, время</t>
-  </si>
-  <si>
-    <t>moment, while</t>
-  </si>
-  <si>
     <t>Jak se dostanu…?</t>
   </si>
   <si>
-    <t>Як я дістануся...?, Як пройти...?</t>
-  </si>
-  <si>
-    <t>Как мне добраться до...?, Как пройти...?</t>
-  </si>
-  <si>
     <t>How do I get to...?</t>
   </si>
   <si>
     <t>Jdi…</t>
   </si>
   <si>
-    <t>Іди…</t>
-  </si>
-  <si>
-    <t>Иди…</t>
-  </si>
-  <si>
-    <t>Go… (informal)</t>
-  </si>
-  <si>
     <t>Jděte…</t>
   </si>
   <si>
-    <t>Ідіть…</t>
-  </si>
-  <si>
-    <t>Идите…</t>
-  </si>
-  <si>
-    <t>Go… (formal/plural)</t>
-  </si>
-  <si>
-    <t>Чи є тут десь поблизу…?</t>
-  </si>
-  <si>
-    <t>Есть здесь где-нибудь поблизости…?</t>
-  </si>
-  <si>
-    <t>Is there a … somewhere near here?</t>
-  </si>
-  <si>
     <t>Jeď…</t>
   </si>
   <si>
-    <t>Їдь…</t>
-  </si>
-  <si>
-    <t>Езжай…</t>
-  </si>
-  <si>
-    <t>Go/Drive/Ride… (informal)</t>
-  </si>
-  <si>
     <t>Jeďte…</t>
   </si>
   <si>
-    <t>Їдьте…</t>
-  </si>
-  <si>
-    <t>Езжайте…</t>
-  </si>
-  <si>
-    <t>Go/Drive/Ride… (formal/plural)</t>
-  </si>
-  <si>
-    <t>jednoduchý</t>
-  </si>
-  <si>
-    <t>простий, нескладний</t>
-  </si>
-  <si>
     <t>простой, несложный</t>
   </si>
   <si>
-    <t>simple, easy</t>
-  </si>
-  <si>
-    <t>jednoduchá</t>
-  </si>
-  <si>
-    <t>проста, нескладна</t>
-  </si>
-  <si>
     <t>простая, несложная</t>
   </si>
   <si>
-    <t>jednoduché</t>
-  </si>
-  <si>
-    <t>просте, нескладне</t>
-  </si>
-  <si>
     <t>простое, несложное</t>
   </si>
   <si>
     <t>Ще раз, будь ласка.</t>
   </si>
   <si>
-    <t>Еще раз, пожалуйста.</t>
-  </si>
-  <si>
-    <t>Once more, please.</t>
-  </si>
-  <si>
     <t>jet</t>
   </si>
   <si>
-    <t>їхати, летіти, пливти</t>
-  </si>
-  <si>
-    <t>ехать, лететь, плыть</t>
-  </si>
-  <si>
-    <t>to go (by vehicle), to ride, to drive</t>
-  </si>
-  <si>
     <t>jedu</t>
   </si>
   <si>
-    <t>я їду</t>
-  </si>
-  <si>
-    <t>я еду</t>
-  </si>
-  <si>
-    <t>I go/ride/drive</t>
-  </si>
-  <si>
-    <t>jiný</t>
-  </si>
-  <si>
-    <t>інший, другий</t>
-  </si>
-  <si>
     <t>другой, иной</t>
   </si>
   <si>
-    <t>other, different</t>
-  </si>
-  <si>
-    <t>jiná</t>
-  </si>
-  <si>
-    <t>інша, друга</t>
-  </si>
-  <si>
     <t>другая, иная</t>
   </si>
   <si>
-    <t>jiné</t>
-  </si>
-  <si>
-    <t>інше, друге</t>
-  </si>
-  <si>
     <t>другое, иное</t>
   </si>
   <si>
     <t>jít</t>
   </si>
   <si>
-    <t>йти, піти, ходити</t>
-  </si>
-  <si>
-    <t>идти, ходить</t>
-  </si>
-  <si>
     <t>to go (on foot), to walk</t>
   </si>
   <si>
     <t>jdu</t>
   </si>
   <si>
-    <t>я йду</t>
-  </si>
-  <si>
-    <t>я иду</t>
-  </si>
-  <si>
-    <t>I go/walk</t>
-  </si>
-  <si>
-    <t>kavárna</t>
-  </si>
-  <si>
-    <t>кав'ярня, кафе</t>
-  </si>
-  <si>
-    <t>кофейня, кафе</t>
-  </si>
-  <si>
     <t>café, coffee shop</t>
   </si>
   <si>
-    <t>kilometr</t>
-  </si>
-  <si>
     <t>кілометр</t>
   </si>
   <si>
     <t>километр</t>
   </si>
   <si>
-    <t>kilometre, kilometer</t>
-  </si>
-  <si>
-    <t>kino</t>
-  </si>
-  <si>
     <t>кіно, кінотеатр</t>
   </si>
   <si>
     <t>кино, кинотеатр</t>
   </si>
   <si>
-    <t>cinema, movie theatre</t>
-  </si>
-  <si>
-    <t>knihkupectví</t>
-  </si>
-  <si>
-    <t>книгарня</t>
-  </si>
-  <si>
     <t>книжный магазин</t>
   </si>
   <si>
     <t>bookstore, bookshop</t>
   </si>
   <si>
-    <t>knihovna</t>
-  </si>
-  <si>
     <t>бібліотека</t>
   </si>
   <si>
@@ -915,207 +414,72 @@
     <t>library</t>
   </si>
   <si>
-    <t>kolej</t>
-  </si>
-  <si>
-    <t>гуртожиток, колегія</t>
-  </si>
-  <si>
-    <t>общежитие, колледж</t>
-  </si>
-  <si>
-    <t>dormitory, hall of residence</t>
-  </si>
-  <si>
-    <t>koncert</t>
-  </si>
-  <si>
     <t>концерт</t>
   </si>
   <si>
     <t>concert</t>
   </si>
   <si>
-    <t>kostel</t>
-  </si>
-  <si>
     <t>костел, церква</t>
   </si>
   <si>
-    <t>костел, церковь</t>
-  </si>
-  <si>
     <t>church</t>
   </si>
   <si>
-    <t>kostela</t>
-  </si>
-  <si>
-    <t>костелу, церкви (род. відм.)</t>
-  </si>
-  <si>
-    <t>костела, церкви (род. п.)</t>
-  </si>
-  <si>
-    <t>of the church</t>
-  </si>
-  <si>
-    <t>lékárna</t>
-  </si>
-  <si>
     <t>аптека</t>
   </si>
   <si>
-    <t>pharmacy, chemist's</t>
-  </si>
-  <si>
-    <t>les</t>
-  </si>
-  <si>
     <t>ліс</t>
   </si>
   <si>
     <t>лес</t>
   </si>
   <si>
-    <t>forest, wood</t>
-  </si>
-  <si>
-    <t>lesa</t>
-  </si>
-  <si>
-    <t>лісу (род. відм.)</t>
-  </si>
-  <si>
-    <t>леса (род. п.)</t>
-  </si>
-  <si>
-    <t>of the forest</t>
-  </si>
-  <si>
-    <t>letadlo</t>
-  </si>
-  <si>
     <t>літак</t>
   </si>
   <si>
-    <t>самолет</t>
-  </si>
-  <si>
-    <t>plane, aircraft</t>
-  </si>
-  <si>
     <t>letět letadlem</t>
   </si>
   <si>
     <t>летіти літаком</t>
   </si>
   <si>
-    <t>лететь на самолете</t>
-  </si>
-  <si>
     <t>to fly by plane</t>
   </si>
   <si>
-    <t>letiště</t>
-  </si>
-  <si>
-    <t>летовище, аеропорт</t>
-  </si>
-  <si>
     <t>аэропорт</t>
   </si>
   <si>
     <t>airport</t>
   </si>
   <si>
-    <t>menza</t>
-  </si>
-  <si>
-    <t>менза, студентська їдальня</t>
-  </si>
-  <si>
     <t>столовая (студенческая), менза</t>
   </si>
   <si>
-    <t>refectory, university canteen</t>
-  </si>
-  <si>
-    <t>metro</t>
-  </si>
-  <si>
-    <t>метро, ​​підземка</t>
-  </si>
-  <si>
-    <t>метро, подземка</t>
-  </si>
-  <si>
-    <t>metro, subway</t>
-  </si>
-  <si>
     <t>jet metrem</t>
   </si>
   <si>
-    <t>їхати метро</t>
-  </si>
-  <si>
     <t>ехать на метро</t>
   </si>
   <si>
-    <t>to go/travel by metro</t>
-  </si>
-  <si>
     <t>mít radost z</t>
   </si>
   <si>
-    <t>радіти з, мати радість від</t>
-  </si>
-  <si>
-    <t>радоваться чему-то, иметь радость от</t>
-  </si>
-  <si>
-    <t>to be glad about, to enjoy</t>
-  </si>
-  <si>
     <t>mít strach z</t>
   </si>
   <si>
-    <t>боятися чогось, мати страх перед</t>
-  </si>
-  <si>
-    <t>бояться, иметь страх перед</t>
-  </si>
-  <si>
     <t>moct</t>
   </si>
   <si>
-    <t>могти, мати можливість</t>
-  </si>
-  <si>
-    <t>мочь, иметь возможность</t>
-  </si>
-  <si>
     <t>can, to be able to</t>
   </si>
   <si>
     <t>můžu</t>
   </si>
   <si>
-    <t>я можу</t>
-  </si>
-  <si>
-    <t>я могу</t>
-  </si>
-  <si>
-    <t>I can</t>
-  </si>
-  <si>
     <t>mohu</t>
   </si>
   <si>
-    <t>most</t>
-  </si>
-  <si>
     <t>міст</t>
   </si>
   <si>
@@ -1125,30 +489,18 @@
     <t>bridge</t>
   </si>
   <si>
-    <t>možný</t>
-  </si>
-  <si>
     <t>можливий</t>
   </si>
   <si>
     <t>возможный</t>
   </si>
   <si>
-    <t>possible</t>
-  </si>
-  <si>
-    <t>možná</t>
-  </si>
-  <si>
     <t>можлива</t>
   </si>
   <si>
     <t>возможная</t>
   </si>
   <si>
-    <t>možné</t>
-  </si>
-  <si>
     <t>можливе</t>
   </si>
   <si>
@@ -1158,150 +510,57 @@
     <t>muset</t>
   </si>
   <si>
-    <t>мусити, бути зобов'язаним</t>
-  </si>
-  <si>
-    <t>долженствовать, быть обязанным</t>
-  </si>
-  <si>
     <t>must, to have to</t>
   </si>
   <si>
     <t>Můžeš mi pomoct?</t>
   </si>
   <si>
-    <t>Ти можеш мені допомогти?</t>
-  </si>
-  <si>
-    <t>Ты можешь мне помочь?</t>
-  </si>
-  <si>
     <t>Can you help me? (informal)</t>
   </si>
   <si>
     <t>Můžete mi pomoct?</t>
   </si>
   <si>
-    <t>Ви можете мені допомогти?</t>
-  </si>
-  <si>
-    <t>Вы можете мне помочь?</t>
-  </si>
-  <si>
-    <t>Can you help me? (formal/plural)</t>
-  </si>
-  <si>
     <t>Můžeš nám pomoct?</t>
   </si>
   <si>
-    <t>Ти можеш нам допомогти?</t>
-  </si>
-  <si>
-    <t>Ты можешь нам помочь?</t>
-  </si>
-  <si>
     <t>Can you help us? (informal)</t>
   </si>
   <si>
     <t>Můžete nám pomoct?</t>
   </si>
   <si>
-    <t>Ви можете нам допомогти?</t>
-  </si>
-  <si>
-    <t>Вы можете нам допомогти?</t>
-  </si>
-  <si>
-    <t>Can you help us? (formal/plural)</t>
-  </si>
-  <si>
     <t>Můžu ti pomoct?</t>
   </si>
   <si>
-    <t>Я можу тобі допомогти?</t>
-  </si>
-  <si>
-    <t>Я могу тебе помочь?</t>
-  </si>
-  <si>
     <t>Can I help you? (informal)</t>
   </si>
   <si>
     <t>Můžu vám pomoct?</t>
   </si>
   <si>
-    <t>Я можу Вам допомогти?</t>
-  </si>
-  <si>
-    <t>Я могу Вам помочь?</t>
-  </si>
-  <si>
-    <t>Can I help you? (formal/plural)</t>
-  </si>
-  <si>
     <t>mýt se</t>
   </si>
   <si>
-    <t>митися</t>
-  </si>
-  <si>
-    <t>мыться</t>
-  </si>
-  <si>
     <t>to wash oneself</t>
   </si>
   <si>
     <t>myju se</t>
   </si>
   <si>
-    <t>я миюся</t>
-  </si>
-  <si>
-    <t>я моюсь</t>
-  </si>
-  <si>
-    <t>I wash myself</t>
-  </si>
-  <si>
-    <t>на розі</t>
-  </si>
-  <si>
     <t>на углу</t>
   </si>
   <si>
     <t>on the corner</t>
   </si>
   <si>
-    <t>nádraží</t>
-  </si>
-  <si>
-    <t>вокзал, станція</t>
-  </si>
-  <si>
     <t>вокзал, станция</t>
   </si>
   <si>
-    <t>station (train, bus)</t>
-  </si>
-  <si>
-    <t>випадково, раптом</t>
-  </si>
-  <si>
-    <t>случайно, вдруг</t>
-  </si>
-  <si>
     <t>by chance, accidentally</t>
   </si>
   <si>
-    <t>нагору, вгору</t>
-  </si>
-  <si>
-    <t>наверх, вверх</t>
-  </si>
-  <si>
-    <t>up, upwards</t>
-  </si>
-  <si>
     <t>najít</t>
   </si>
   <si>
@@ -1317,39 +576,9 @@
     <t>najdu</t>
   </si>
   <si>
-    <t>я знайду</t>
-  </si>
-  <si>
-    <t>я найду</t>
-  </si>
-  <si>
     <t>I will find</t>
   </si>
   <si>
-    <t>nákupní</t>
-  </si>
-  <si>
-    <t>купівельний, закупівельний</t>
-  </si>
-  <si>
-    <t>покупной, закупочный</t>
-  </si>
-  <si>
-    <t>shopping (adj.)</t>
-  </si>
-  <si>
-    <t>сісти, зайти (у транспорт), поступити</t>
-  </si>
-  <si>
-    <t>сесть, зайти (в транспорт), поступить</t>
-  </si>
-  <si>
-    <t>to get on/board, to enter</t>
-  </si>
-  <si>
-    <t>nemocnice</t>
-  </si>
-  <si>
     <t>лікарня</t>
   </si>
   <si>
@@ -1359,90 +588,24 @@
     <t>hospital</t>
   </si>
   <si>
-    <t>nutný</t>
-  </si>
-  <si>
-    <t>потрібний, необхідний, нагальний</t>
-  </si>
-  <si>
-    <t>нужный, необходимый, срочный</t>
-  </si>
-  <si>
-    <t>necessary, essential</t>
-  </si>
-  <si>
-    <t>nutná</t>
-  </si>
-  <si>
-    <t>потрібна, необхідна, нагальна</t>
-  </si>
-  <si>
-    <t>нужная, необходимая, срочная</t>
-  </si>
-  <si>
-    <t>nutné</t>
-  </si>
-  <si>
-    <t>потрібне, необхідне, нагальне</t>
-  </si>
-  <si>
-    <t>нужное, необходимое, срочное</t>
-  </si>
-  <si>
-    <t>oběd</t>
-  </si>
-  <si>
     <t>обід</t>
   </si>
   <si>
     <t>обед</t>
   </si>
   <si>
-    <t>lunch, dinner</t>
-  </si>
-  <si>
-    <t>obchod</t>
-  </si>
-  <si>
-    <t>магазин, торгівля</t>
-  </si>
-  <si>
-    <t>магазин, торговля</t>
-  </si>
-  <si>
-    <t>shop, store, trade</t>
-  </si>
-  <si>
-    <t>obchodní dům</t>
-  </si>
-  <si>
-    <t>універмаг, торговий центр</t>
-  </si>
-  <si>
-    <t>универмаг, торговый центр</t>
-  </si>
-  <si>
     <t>department store</t>
   </si>
   <si>
-    <t>obchodní</t>
-  </si>
-  <si>
     <t>торговий, комерційний</t>
   </si>
   <si>
     <t>торговый, коммерческий</t>
   </si>
   <si>
-    <t>trade (adj.), commercial</t>
-  </si>
-  <si>
     <t>відколи, з якого часу</t>
   </si>
   <si>
-    <t>с какого времени</t>
-  </si>
-  <si>
     <t>since when, from when</t>
   </si>
   <si>
@@ -1470,30 +633,18 @@
     <t>je otevřeno</t>
   </si>
   <si>
-    <t>it is open</t>
-  </si>
-  <si>
     <t>park</t>
   </si>
   <si>
     <t>парк</t>
   </si>
   <si>
-    <t>parkoviště</t>
-  </si>
-  <si>
     <t>парковка, стоянка</t>
   </si>
   <si>
     <t>parking lot, car park</t>
   </si>
   <si>
-    <t>pekařství</t>
-  </si>
-  <si>
-    <t>пекарня</t>
-  </si>
-  <si>
     <t>bakery</t>
   </si>
   <si>
@@ -1536,42 +687,12 @@
     <t>piju</t>
   </si>
   <si>
-    <t>я п'ю</t>
-  </si>
-  <si>
-    <t>я пью</t>
-  </si>
-  <si>
-    <t>I drink</t>
-  </si>
-  <si>
     <t>Pojedeš…?</t>
   </si>
   <si>
-    <t>Ти поїдеш…?</t>
-  </si>
-  <si>
-    <t>Ты поедешь…?</t>
-  </si>
-  <si>
-    <t>Will you go/ride…? (informal)</t>
-  </si>
-  <si>
     <t>Pojedete…?</t>
   </si>
   <si>
-    <t>Ви поїдете…?</t>
-  </si>
-  <si>
-    <t>Вы поедете…?</t>
-  </si>
-  <si>
-    <t>Will you go/ride…? (formal/plural)</t>
-  </si>
-  <si>
-    <t>policie</t>
-  </si>
-  <si>
     <t>поліція</t>
   </si>
   <si>
@@ -1581,150 +702,54 @@
     <t>police</t>
   </si>
   <si>
-    <t>Допомога!, Рятуйте!</t>
-  </si>
-  <si>
-    <t>Помощь!, Спасите!</t>
-  </si>
-  <si>
     <t>Help!</t>
   </si>
   <si>
     <t>pomoct</t>
   </si>
   <si>
-    <t>допомогти, посприяти</t>
-  </si>
-  <si>
-    <t>помочь, оказать помощь</t>
-  </si>
-  <si>
     <t>to help</t>
   </si>
   <si>
     <t>pomůžu</t>
   </si>
   <si>
-    <t>я допоможу</t>
-  </si>
-  <si>
-    <t>я помогу</t>
-  </si>
-  <si>
     <t>I will help</t>
   </si>
   <si>
     <t>pomohu</t>
   </si>
   <si>
-    <t>Rád ti pomůžu.</t>
-  </si>
-  <si>
     <t>Я радий тобі допомогти.</t>
   </si>
   <si>
     <t>Я рад тебе помочь.</t>
   </si>
   <si>
-    <t>I'm happy to help you. (male speaker, informal)</t>
-  </si>
-  <si>
-    <t>Ráda ti pomůžu.</t>
-  </si>
-  <si>
     <t>Я рада тобі допомогти.</t>
   </si>
   <si>
     <t>Я рада тебе помочь.</t>
   </si>
   <si>
-    <t>I'm happy to help you. (female speaker, informal)</t>
-  </si>
-  <si>
-    <t>Rád vám pomůžu.</t>
-  </si>
-  <si>
-    <t>Я радий Вам допомогти.</t>
-  </si>
-  <si>
-    <t>Я рад Вам помочь.</t>
-  </si>
-  <si>
-    <t>I'm happy to help you. (male speaker, formal)</t>
-  </si>
-  <si>
-    <t>Ráda vám pomůžu.</t>
-  </si>
-  <si>
-    <t>Я рада Вам допомогти.</t>
-  </si>
-  <si>
-    <t>Я рада Вам помочь.</t>
-  </si>
-  <si>
-    <t>I'm happy to help you. (female speaker, formal)</t>
-  </si>
-  <si>
     <t>Pomůžeš mi?</t>
   </si>
   <si>
-    <t>Ти мені допоможеш?</t>
-  </si>
-  <si>
-    <t>Ты мне поможешь?</t>
-  </si>
-  <si>
     <t>Will you help me? (informal)</t>
   </si>
   <si>
     <t>Pomůžete mi?</t>
   </si>
   <si>
-    <t>Ви мені допоможете?</t>
-  </si>
-  <si>
-    <t>Вы мне поможете?</t>
-  </si>
-  <si>
-    <t>Will you help me? (formal/plural)</t>
-  </si>
-  <si>
     <t>Pomůžeš nám?</t>
   </si>
   <si>
-    <t>Ти нам допоможеш?</t>
-  </si>
-  <si>
-    <t>Ты нам поможешь?</t>
-  </si>
-  <si>
     <t>Will you help us? (informal)</t>
   </si>
   <si>
     <t>Pomůžete nám?</t>
   </si>
   <si>
-    <t>Ви нам допоможете?</t>
-  </si>
-  <si>
-    <t>Вы нам поможете?</t>
-  </si>
-  <si>
-    <t>Will you help us? (formal/plural)</t>
-  </si>
-  <si>
-    <t>постійно, завжди, все ще</t>
-  </si>
-  <si>
-    <t>постоянно, всегда, все еще</t>
-  </si>
-  <si>
-    <t>always, constantly, still</t>
-  </si>
-  <si>
-    <t>postel</t>
-  </si>
-  <si>
     <t>ліжко</t>
   </si>
   <si>
@@ -1734,27 +759,12 @@
     <t>bed</t>
   </si>
   <si>
-    <t>pošta</t>
-  </si>
-  <si>
     <t>пошта</t>
   </si>
   <si>
     <t>почта</t>
   </si>
   <si>
-    <t>post office, mail</t>
-  </si>
-  <si>
-    <t>potraviny</t>
-  </si>
-  <si>
-    <t>продукти харчування, бакалія</t>
-  </si>
-  <si>
-    <t>продукты питания</t>
-  </si>
-  <si>
     <t>groceries, food</t>
   </si>
   <si>
@@ -1764,9 +774,6 @@
     <t>Внимание!, Осторожно!</t>
   </si>
   <si>
-    <t>Attention!, Watch out!</t>
-  </si>
-  <si>
     <t>pozvat</t>
   </si>
   <si>
@@ -1779,9 +786,6 @@
     <t>to invite</t>
   </si>
   <si>
-    <t>práce</t>
-  </si>
-  <si>
     <t>робота, праця</t>
   </si>
   <si>
@@ -1791,9 +795,6 @@
     <t>work, job</t>
   </si>
   <si>
-    <t>do práce</t>
-  </si>
-  <si>
     <t>на роботу</t>
   </si>
   <si>
@@ -1803,18 +804,6 @@
     <t>to work</t>
   </si>
   <si>
-    <t>чудово, класно, першокласно</t>
-  </si>
-  <si>
-    <t>отлично, классно, первоклассно</t>
-  </si>
-  <si>
-    <t>great, prime, cool</t>
-  </si>
-  <si>
-    <t>program</t>
-  </si>
-  <si>
     <t>програма</t>
   </si>
   <si>
@@ -1833,42 +822,9 @@
     <t>přát si</t>
   </si>
   <si>
-    <t>бажати собі, хотіти</t>
-  </si>
-  <si>
-    <t>желать себе, хотеть</t>
-  </si>
-  <si>
-    <t>to wish for, to desire</t>
-  </si>
-  <si>
     <t>přeju si</t>
   </si>
   <si>
-    <t>я бажаю, я хочу</t>
-  </si>
-  <si>
-    <t>я желаю, я хочу</t>
-  </si>
-  <si>
-    <t>I wish, I want</t>
-  </si>
-  <si>
-    <t>пересісти (у транспорті), перейти</t>
-  </si>
-  <si>
-    <t>пересесть (в транспорте), перейти</t>
-  </si>
-  <si>
-    <t>to change (vehicles), to transfer</t>
-  </si>
-  <si>
-    <t>příští</t>
-  </si>
-  <si>
-    <t>наступний</t>
-  </si>
-  <si>
     <t>следующий, будущий</t>
   </si>
   <si>
@@ -1890,69 +846,24 @@
     <t>píšu</t>
   </si>
   <si>
-    <t>я пишу</t>
-  </si>
-  <si>
-    <t>I write</t>
-  </si>
-  <si>
     <t>ptát se</t>
   </si>
   <si>
     <t>питати, запитувати</t>
   </si>
   <si>
-    <t>спрашивать</t>
-  </si>
-  <si>
-    <t>to ask</t>
-  </si>
-  <si>
     <t>Půjdeš…?</t>
   </si>
   <si>
-    <t>Ти підеш…?</t>
-  </si>
-  <si>
-    <t>Ты пойдешь…?</t>
-  </si>
-  <si>
-    <t>Will you go/walk…? (informal)</t>
-  </si>
-  <si>
     <t>Půjdete…?</t>
   </si>
   <si>
-    <t>Ви підете…?</t>
-  </si>
-  <si>
-    <t>Вы пойдете…?</t>
-  </si>
-  <si>
-    <t>Will you go/walk…? (formal/plural)</t>
-  </si>
-  <si>
-    <t>restaurace</t>
-  </si>
-  <si>
     <t>ресторан</t>
   </si>
   <si>
     <t>restaurant</t>
   </si>
   <si>
-    <t>прямо, рівно</t>
-  </si>
-  <si>
-    <t>прямо, ровно</t>
-  </si>
-  <si>
-    <t>straight ahead, evenly</t>
-  </si>
-  <si>
-    <t>řeka</t>
-  </si>
-  <si>
     <t>річка</t>
   </si>
   <si>
@@ -1965,42 +876,9 @@
     <t>sejít se</t>
   </si>
   <si>
-    <t>зустрітися, зібратися</t>
-  </si>
-  <si>
-    <t>встретиться, собраться</t>
-  </si>
-  <si>
-    <t>to meet up, to get together</t>
-  </si>
-  <si>
     <t>sejdu se</t>
   </si>
   <si>
-    <t>я зустрінуся</t>
-  </si>
-  <si>
-    <t>я встречусь</t>
-  </si>
-  <si>
-    <t>I will meet up</t>
-  </si>
-  <si>
-    <t>schůzka</t>
-  </si>
-  <si>
-    <t>зустріч, побачення</t>
-  </si>
-  <si>
-    <t>встреча, свидание</t>
-  </si>
-  <si>
-    <t>meeting, appointment</t>
-  </si>
-  <si>
-    <t>směr</t>
-  </si>
-  <si>
     <t>напрямок</t>
   </si>
   <si>
@@ -2010,18 +888,9 @@
     <t>direction</t>
   </si>
   <si>
-    <t>може, можливо, сподіваюся</t>
-  </si>
-  <si>
-    <t>может, возможно, надеюсь</t>
-  </si>
-  <si>
     <t>perhaps, maybe, hopefully</t>
   </si>
   <si>
-    <t>snídaně</t>
-  </si>
-  <si>
     <t>сніданок</t>
   </si>
   <si>
@@ -2031,132 +900,48 @@
     <t>breakfast</t>
   </si>
   <si>
-    <t>stanice</t>
-  </si>
-  <si>
-    <t>станція, зупинка</t>
-  </si>
-  <si>
-    <t>станция, остановка</t>
-  </si>
-  <si>
-    <t>station, stop</t>
-  </si>
-  <si>
-    <t>strach</t>
-  </si>
-  <si>
     <t>страх</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
-    <t>strašný</t>
-  </si>
-  <si>
-    <t>страшний, жахливий</t>
-  </si>
-  <si>
-    <t>страшный, ужасный</t>
-  </si>
-  <si>
-    <t>terrible, awful</t>
-  </si>
-  <si>
-    <t>strašná</t>
-  </si>
-  <si>
-    <t>страшна, жахлива</t>
-  </si>
-  <si>
-    <t>страшная, ужасная</t>
-  </si>
-  <si>
-    <t>strašné</t>
-  </si>
-  <si>
-    <t>страшне, жахливе</t>
-  </si>
-  <si>
-    <t>страшное, ужасное</t>
-  </si>
-  <si>
     <t>Stůj!</t>
   </si>
   <si>
-    <t>Стій!, Зупинись!</t>
-  </si>
-  <si>
-    <t>Стой!, Остановись!</t>
-  </si>
-  <si>
     <t>Stop! (informal)</t>
   </si>
   <si>
     <t>Stůjte!</t>
   </si>
   <si>
-    <t>Стійте!, Зупиніться!</t>
-  </si>
-  <si>
-    <t>Стойте!, Остановитесь!</t>
-  </si>
-  <si>
-    <t>Stop! (formal/plural)</t>
-  </si>
-  <si>
-    <t>šťastný</t>
-  </si>
-  <si>
     <t>щасливий</t>
   </si>
   <si>
     <t>счастливый</t>
   </si>
   <si>
-    <t>happy, lucky</t>
-  </si>
-  <si>
-    <t>šťastná</t>
-  </si>
-  <si>
     <t>щаслива</t>
   </si>
   <si>
     <t>счастливая</t>
   </si>
   <si>
-    <t>šťastné</t>
-  </si>
-  <si>
     <t>щасливе</t>
   </si>
   <si>
     <t>счастливое</t>
   </si>
   <si>
-    <t>там, он там</t>
-  </si>
-  <si>
-    <t>там, вон там</t>
-  </si>
-  <si>
     <t>over there</t>
   </si>
   <si>
-    <t>taxík</t>
-  </si>
-  <si>
     <t>таксі</t>
   </si>
   <si>
     <t>такси</t>
   </si>
   <si>
-    <t>taxi</t>
-  </si>
-  <si>
     <t>jet taxíkem</t>
   </si>
   <si>
@@ -2166,21 +951,9 @@
     <t>ехать на такси</t>
   </si>
   <si>
-    <t>to go/travel by taxi</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
-    <t>тест, іспит</t>
-  </si>
-  <si>
-    <t>тест, экзамен</t>
-  </si>
-  <si>
-    <t>tramvaj</t>
-  </si>
-  <si>
     <t>трамвай</t>
   </si>
   <si>
@@ -2196,24 +969,12 @@
     <t>ехать на трамвае</t>
   </si>
   <si>
-    <t>to go/travel by tram</t>
-  </si>
-  <si>
-    <t>úkol</t>
-  </si>
-  <si>
-    <t>завдання, задача</t>
-  </si>
-  <si>
     <t>задание, задача</t>
   </si>
   <si>
     <t>task, assignment</t>
   </si>
   <si>
-    <t>univerzita</t>
-  </si>
-  <si>
     <t>університет</t>
   </si>
   <si>
@@ -2223,72 +984,24 @@
     <t>university</t>
   </si>
   <si>
-    <t>večeře</t>
-  </si>
-  <si>
-    <t>вечеря, вечерній прийом їжі</t>
-  </si>
-  <si>
     <t>ужин</t>
   </si>
   <si>
     <t>dinner, supper</t>
   </si>
   <si>
-    <t>назовні, геть, звідси</t>
-  </si>
-  <si>
-    <t>наружу, прочь, отсюда</t>
-  </si>
-  <si>
-    <t>out, outside, away</t>
-  </si>
-  <si>
-    <t>на вулиці, ззовні</t>
-  </si>
-  <si>
-    <t>на улице, снаружи</t>
-  </si>
-  <si>
-    <t>outside, outdoors</t>
-  </si>
-  <si>
     <t>vevnitř</t>
   </si>
   <si>
-    <t>всередині, усередині</t>
-  </si>
-  <si>
-    <t>внутри</t>
-  </si>
-  <si>
-    <t>inside</t>
-  </si>
-  <si>
     <t>uvnitř</t>
   </si>
   <si>
     <t>vézt</t>
   </si>
   <si>
-    <t>везти, перевозити</t>
-  </si>
-  <si>
-    <t>везти, перевозить</t>
-  </si>
-  <si>
-    <t>to carry, to convey</t>
-  </si>
-  <si>
     <t>vezu</t>
   </si>
   <si>
-    <t>я везу</t>
-  </si>
-  <si>
-    <t>I am carrying/conveying</t>
-  </si>
-  <si>
     <t>вхід</t>
   </si>
   <si>
@@ -2298,12 +1011,6 @@
     <t>entrance</t>
   </si>
   <si>
-    <t>vlak</t>
-  </si>
-  <si>
-    <t>поїзд</t>
-  </si>
-  <si>
     <t>поезд</t>
   </si>
   <si>
@@ -2313,153 +1020,39 @@
     <t>jet vlakem</t>
   </si>
   <si>
-    <t>їхати поїздом</t>
-  </si>
-  <si>
     <t>ехать на поезде</t>
   </si>
   <si>
-    <t>to go/travel by train</t>
-  </si>
-  <si>
-    <t>vlakový</t>
-  </si>
-  <si>
-    <t>поїзний, залізничний</t>
-  </si>
-  <si>
     <t>поездной, железнодорожный</t>
   </si>
   <si>
-    <t>train (adj.)</t>
-  </si>
-  <si>
-    <t>vlaková</t>
-  </si>
-  <si>
-    <t>поїзна, залізнична</t>
-  </si>
-  <si>
     <t>поездная, железнодорожная</t>
   </si>
   <si>
-    <t>vlakové</t>
-  </si>
-  <si>
-    <t>поїзне, залізничне</t>
-  </si>
-  <si>
     <t>поездное, железнодорожное</t>
   </si>
   <si>
-    <t>výborný</t>
-  </si>
-  <si>
-    <t>відмінний, чудовий, дуже смачний</t>
-  </si>
-  <si>
-    <t>отличный, превосходный, очень вкусный</t>
-  </si>
-  <si>
-    <t>excellent, great, delicious</t>
-  </si>
-  <si>
-    <t>výborná</t>
-  </si>
-  <si>
-    <t>відмінна, чудова, дуже смачна</t>
-  </si>
-  <si>
-    <t>отличная, превосходная, очень вкусная</t>
-  </si>
-  <si>
-    <t>výborné</t>
-  </si>
-  <si>
-    <t>відмінне, чудове, дуже смачне</t>
-  </si>
-  <si>
-    <t>отличное, превосходное, очень вкусное</t>
-  </si>
-  <si>
-    <t>вихід, схід (сонця)</t>
-  </si>
-  <si>
     <t>выход, восток</t>
   </si>
   <si>
-    <t>exit, east, sunrise</t>
-  </si>
-  <si>
-    <t>výlet</t>
-  </si>
-  <si>
-    <t>прогулянка, екскурсія, поїздка</t>
-  </si>
-  <si>
-    <t>прогулка, экскурсия, поездка</t>
-  </si>
-  <si>
-    <t>trip, outing, excursion</t>
-  </si>
-  <si>
-    <t>výstava</t>
-  </si>
-  <si>
     <t>виставка</t>
   </si>
   <si>
     <t>выставка</t>
   </si>
   <si>
-    <t>exhibition, show</t>
-  </si>
-  <si>
-    <t>вийти (з транспорту), виступити</t>
-  </si>
-  <si>
-    <t>выйти (из транспорта), выступить</t>
-  </si>
-  <si>
-    <t>to get off, to alight, to step out</t>
-  </si>
-  <si>
     <t>Zahneš…</t>
   </si>
   <si>
-    <t>Ти повернеш…</t>
-  </si>
-  <si>
-    <t>Ты повернешь…</t>
-  </si>
-  <si>
-    <t>You will turn… (informal)</t>
-  </si>
-  <si>
     <t>Zahnete…</t>
   </si>
   <si>
-    <t>Ви повернете…</t>
-  </si>
-  <si>
-    <t>Вы повернете…</t>
-  </si>
-  <si>
-    <t>You will turn… (formal/plural)</t>
-  </si>
-  <si>
-    <t>zastávka</t>
-  </si>
-  <si>
     <t>зупинка</t>
   </si>
   <si>
     <t>остановка</t>
   </si>
   <si>
-    <t>stop (bus/tram)</t>
-  </si>
-  <si>
     <t>zavřeno</t>
   </si>
   <si>
@@ -2475,33 +1068,18 @@
     <t>je zavřeno</t>
   </si>
   <si>
-    <t>it is closed</t>
-  </si>
-  <si>
     <t>zeptat se</t>
   </si>
   <si>
     <t>запитати, спитати</t>
   </si>
   <si>
-    <t>спросить, задать вопрос</t>
-  </si>
-  <si>
     <t>to ask (a question)</t>
   </si>
   <si>
-    <t>назад, зворотно</t>
-  </si>
-  <si>
     <t>назад, обратно</t>
   </si>
   <si>
-    <t>back, backwards</t>
-  </si>
-  <si>
-    <t>загубитися, заблукати</t>
-  </si>
-  <si>
     <t>потеряться, заблудиться</t>
   </si>
   <si>
@@ -2511,15 +1089,9 @@
     <t>zúčastnit se</t>
   </si>
   <si>
-    <t>взяти участь, долучитися</t>
-  </si>
-  <si>
     <t>принять участие, участвовать</t>
   </si>
   <si>
-    <t>to participate, to take part in</t>
-  </si>
-  <si>
     <t>zvát</t>
   </si>
   <si>
@@ -2541,28 +1113,1534 @@
     <t>я приглашаю, я зову</t>
   </si>
   <si>
-    <t>I invite, I call</t>
-  </si>
-  <si>
     <t>žít</t>
   </si>
   <si>
-    <t>жити, існувати</t>
-  </si>
-  <si>
-    <t>жить, существовать</t>
-  </si>
-  <si>
     <t>to live</t>
   </si>
   <si>
     <t>žiju</t>
   </si>
   <si>
-    <t>я живу</t>
-  </si>
-  <si>
-    <t>I live</t>
+    <t>(Ž) ambasáda</t>
+  </si>
+  <si>
+    <t>посольство</t>
+  </si>
+  <si>
+    <t>мабуть, напевно, приблизно</t>
+  </si>
+  <si>
+    <t>наверное, пожалуй, приблизительно, около</t>
+  </si>
+  <si>
+    <t>probably, maybe, about</t>
+  </si>
+  <si>
+    <t>(S) auto</t>
+  </si>
+  <si>
+    <t>авто, автомобіль, машина</t>
+  </si>
+  <si>
+    <t>авто, автомобиль, машина</t>
+  </si>
+  <si>
+    <t>їхати машиною, їхати автомобілем</t>
+  </si>
+  <si>
+    <t>ехать на машине, ехать на автомобиле</t>
+  </si>
+  <si>
+    <t>to go by car, to drive</t>
+  </si>
+  <si>
+    <t>(M) autobus</t>
+  </si>
+  <si>
+    <t>to go by bus, to take the bus</t>
+  </si>
+  <si>
+    <t>(M) autobusový</t>
+  </si>
+  <si>
+    <t>bus (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) autobusová</t>
+  </si>
+  <si>
+    <t>(S) autobusové</t>
+  </si>
+  <si>
+    <t>(Ž) banka</t>
+  </si>
+  <si>
+    <t>(M) bankomat</t>
+  </si>
+  <si>
+    <t>боятися</t>
+  </si>
+  <si>
+    <t>бояться</t>
+  </si>
+  <si>
+    <t>to be afraid, to fear</t>
+  </si>
+  <si>
+    <t>я боюся, боюся</t>
+  </si>
+  <si>
+    <t>я боюсь, боюсь</t>
+  </si>
+  <si>
+    <t>I'm afraid, I'm scared</t>
+  </si>
+  <si>
+    <t>(M) bazén</t>
+  </si>
+  <si>
+    <t>близько, поруч</t>
+  </si>
+  <si>
+    <t>близко, рядом</t>
+  </si>
+  <si>
+    <t>near, close</t>
+  </si>
+  <si>
+    <t>(S) centrum</t>
+  </si>
+  <si>
+    <t>center, city center</t>
+  </si>
+  <si>
+    <t>(Ž) cesta</t>
+  </si>
+  <si>
+    <t>шлях, дорога, подорож</t>
+  </si>
+  <si>
+    <t>путь, дорога, поездка</t>
+  </si>
+  <si>
+    <t>way, road, journey, trip</t>
+  </si>
+  <si>
+    <t>Have a good trip., Bon voyage.</t>
+  </si>
+  <si>
+    <t>Що?, Що-що?</t>
+  </si>
+  <si>
+    <t>Что?, Что-что?</t>
+  </si>
+  <si>
+    <t>What?, Pardon?</t>
+  </si>
+  <si>
+    <t>(Ž) cukrárna</t>
+  </si>
+  <si>
+    <t>кондитерська, цукерня</t>
+  </si>
+  <si>
+    <t>pastry shop, confectionery</t>
+  </si>
+  <si>
+    <t>тренуватися, робити вправи</t>
+  </si>
+  <si>
+    <t>тренироваться, упражняться, заниматься</t>
+  </si>
+  <si>
+    <t>я читаю, читаю</t>
+  </si>
+  <si>
+    <t>I read, I am reading</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>дати</t>
+  </si>
+  <si>
+    <t>дать</t>
+  </si>
+  <si>
+    <t>to give, to put</t>
+  </si>
+  <si>
+    <t>(Ž) diskotéka</t>
+  </si>
+  <si>
+    <t>disco, discotheque</t>
+  </si>
+  <si>
+    <t>(S) divadlo</t>
+  </si>
+  <si>
+    <t>theater</t>
+  </si>
+  <si>
+    <t>(for a) long time</t>
+  </si>
+  <si>
+    <t>досить, цілком</t>
+  </si>
+  <si>
+    <t>довольно, вполне</t>
+  </si>
+  <si>
+    <t>quite, rather, fairly</t>
+  </si>
+  <si>
+    <t>до скольки, до какого времени</t>
+  </si>
+  <si>
+    <t>until when, by when</t>
+  </si>
+  <si>
+    <t>налево</t>
+  </si>
+  <si>
+    <t>(to the) left</t>
+  </si>
+  <si>
+    <t>вниз, униз</t>
+  </si>
+  <si>
+    <t>down, downstairs</t>
+  </si>
+  <si>
+    <t>(M) domácí úkol</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) domácí</t>
+  </si>
+  <si>
+    <t>домашній, домашня, домашнє</t>
+  </si>
+  <si>
+    <t>домашний, домашняя, домашнее</t>
+  </si>
+  <si>
+    <t>home (adj), domestic</t>
+  </si>
+  <si>
+    <t>home (direction)</t>
+  </si>
+  <si>
+    <t>направо</t>
+  </si>
+  <si>
+    <t>(to the) right</t>
+  </si>
+  <si>
+    <t>всередину, усередину</t>
+  </si>
+  <si>
+    <t>внутрь</t>
+  </si>
+  <si>
+    <t>inside, in</t>
+  </si>
+  <si>
+    <t>(Ž) drogerie</t>
+  </si>
+  <si>
+    <t>господарський магазин, дрогерія, побутова хімія</t>
+  </si>
+  <si>
+    <t>хозяйственный магазин, дрогерия</t>
+  </si>
+  <si>
+    <t>drugstore, chemist's (for toiletries)</t>
+  </si>
+  <si>
+    <t>(M) dům</t>
+  </si>
+  <si>
+    <t>будинок, дім</t>
+  </si>
+  <si>
+    <t>дом</t>
+  </si>
+  <si>
+    <t>(S) fitko</t>
+  </si>
+  <si>
+    <t>фітнес-зал, качалка (розм.)</t>
+  </si>
+  <si>
+    <t>фитнес-зал, качалка (разг.)</t>
+  </si>
+  <si>
+    <t>gym, fitness center</t>
+  </si>
+  <si>
+    <t>(S) fitness centrum</t>
+  </si>
+  <si>
+    <t>фітнес-центр</t>
+  </si>
+  <si>
+    <t>фитнес-центр</t>
+  </si>
+  <si>
+    <t>fitness center</t>
+  </si>
+  <si>
+    <t>(Ž) galerie</t>
+  </si>
+  <si>
+    <t>(Ž) garáž</t>
+  </si>
+  <si>
+    <t>(Ž) hora</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>(Ž) hospoda</t>
+  </si>
+  <si>
+    <t>паб, кнайпа, пивна</t>
+  </si>
+  <si>
+    <t>паб, пивная, трактир</t>
+  </si>
+  <si>
+    <t>pub, tavern</t>
+  </si>
+  <si>
+    <t>(M) hotel</t>
+  </si>
+  <si>
+    <t>(M) hrad</t>
+  </si>
+  <si>
+    <t>замок, град</t>
+  </si>
+  <si>
+    <t>замок, крепость, град</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>Тобі допомогти?, Хочеш, допоможу?</t>
+  </si>
+  <si>
+    <t>Тебе помочь?, Хочешь помочь?</t>
+  </si>
+  <si>
+    <t>Вам допомогти?, Хочете, допоможу?</t>
+  </si>
+  <si>
+    <t>Вам помочь?, Хотите помочь?</t>
+  </si>
+  <si>
+    <t>Do you want help? (formal)</t>
+  </si>
+  <si>
+    <t>хотіти</t>
+  </si>
+  <si>
+    <t>хотеть</t>
+  </si>
+  <si>
+    <t>to want</t>
+  </si>
+  <si>
+    <t>я хочу, хочу</t>
+  </si>
+  <si>
+    <t>(Ž) chvíle</t>
+  </si>
+  <si>
+    <t>мить, хвилина</t>
+  </si>
+  <si>
+    <t>миг, мгновение, минута</t>
+  </si>
+  <si>
+    <t>a while, a moment</t>
+  </si>
+  <si>
+    <t>Як мені дістатися...?, Як мені потрапити...?</t>
+  </si>
+  <si>
+    <t>Как мне добраться...?, Как мне попасть...?</t>
+  </si>
+  <si>
+    <t>Йди...</t>
+  </si>
+  <si>
+    <t>Иди...</t>
+  </si>
+  <si>
+    <t>Go... (on foot, informal)</t>
+  </si>
+  <si>
+    <t>Йдіть...</t>
+  </si>
+  <si>
+    <t>Идите...</t>
+  </si>
+  <si>
+    <t>Go... (on foot, formal)</t>
+  </si>
+  <si>
+    <t>Чи є тут десь поблизу...?</t>
+  </si>
+  <si>
+    <t>Есть ли здесь где-нибудь поблизости...?</t>
+  </si>
+  <si>
+    <t>Is there a ... near here?</t>
+  </si>
+  <si>
+    <t>Їдь...</t>
+  </si>
+  <si>
+    <t>Езжай..., Поезжай...</t>
+  </si>
+  <si>
+    <t>Go (by vehicle)... (informal)</t>
+  </si>
+  <si>
+    <t>Їдьте...</t>
+  </si>
+  <si>
+    <t>Езжайте..., Поезжайте...</t>
+  </si>
+  <si>
+    <t>Go (by vehicle)... (formal)</t>
+  </si>
+  <si>
+    <t>(M) jednoduchý</t>
+  </si>
+  <si>
+    <t>простий</t>
+  </si>
+  <si>
+    <t>simple, easy (male)</t>
+  </si>
+  <si>
+    <t>(Ž) jednoduchá</t>
+  </si>
+  <si>
+    <t>проста</t>
+  </si>
+  <si>
+    <t>simple, easy (female)</t>
+  </si>
+  <si>
+    <t>(S) jednoduché</t>
+  </si>
+  <si>
+    <t>просте</t>
+  </si>
+  <si>
+    <t>simple, easy (neuter)</t>
+  </si>
+  <si>
+    <t>Ещё раз, пожалуйста.</t>
+  </si>
+  <si>
+    <t>One more time, please.</t>
+  </si>
+  <si>
+    <t>їхати (транспортом)</t>
+  </si>
+  <si>
+    <t>ехать (транспортом)</t>
+  </si>
+  <si>
+    <t>to go (by vehicle), to ride</t>
+  </si>
+  <si>
+    <t>я їду, їду</t>
+  </si>
+  <si>
+    <t>я еду, еду</t>
+  </si>
+  <si>
+    <t>I am going (by vehicle), I'm riding</t>
+  </si>
+  <si>
+    <t>(M) jiný</t>
+  </si>
+  <si>
+    <t>інший</t>
+  </si>
+  <si>
+    <t>other, different (male)</t>
+  </si>
+  <si>
+    <t>(Ž) jiná</t>
+  </si>
+  <si>
+    <t>інша</t>
+  </si>
+  <si>
+    <t>other, different (female)</t>
+  </si>
+  <si>
+    <t>(S) jiné</t>
+  </si>
+  <si>
+    <t>інше</t>
+  </si>
+  <si>
+    <t>other, different (neuter)</t>
+  </si>
+  <si>
+    <t>йти (пішки)</t>
+  </si>
+  <si>
+    <t>идти (пешком)</t>
+  </si>
+  <si>
+    <t>я йду, йду</t>
+  </si>
+  <si>
+    <t>я иду, иду</t>
+  </si>
+  <si>
+    <t>I am going (on foot), I'm walking</t>
+  </si>
+  <si>
+    <t>(Ž) kavárna</t>
+  </si>
+  <si>
+    <t>кав'ярня</t>
+  </si>
+  <si>
+    <t>кафе, кофейня</t>
+  </si>
+  <si>
+    <t>(M) kilometr</t>
+  </si>
+  <si>
+    <t>kilometer</t>
+  </si>
+  <si>
+    <t>(S) kino</t>
+  </si>
+  <si>
+    <t>cinema, movie theater</t>
+  </si>
+  <si>
+    <t>(S) knihkupectví</t>
+  </si>
+  <si>
+    <t>книгарня, книжковий магазин</t>
+  </si>
+  <si>
+    <t>(Ž) knihovna</t>
+  </si>
+  <si>
+    <t>(Ž) kolej</t>
+  </si>
+  <si>
+    <t>гуртожиток (студентський), колія</t>
+  </si>
+  <si>
+    <t>общежитие (студенческое), рельс, путь</t>
+  </si>
+  <si>
+    <t>dormitory, dorm, (rail) track</t>
+  </si>
+  <si>
+    <t>(M) koncert</t>
+  </si>
+  <si>
+    <t>(M) kostel</t>
+  </si>
+  <si>
+    <t>костёл, церковь, храм</t>
+  </si>
+  <si>
+    <t>(M) kostela</t>
+  </si>
+  <si>
+    <t>(до/з) костелу, церкви (Род./Знах. відм.)</t>
+  </si>
+  <si>
+    <t>(до/из) костёла, церкви (Род./Вин. п.)</t>
+  </si>
+  <si>
+    <t>(of the) church</t>
+  </si>
+  <si>
+    <t>(Ž) lékárna</t>
+  </si>
+  <si>
+    <t>pharmacy, drugstore</t>
+  </si>
+  <si>
+    <t>(M) les</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>(M) lesa</t>
+  </si>
+  <si>
+    <t>(до/з) лісу (Род. відм.)</t>
+  </si>
+  <si>
+    <t>(до/из) леса (Род. п.)</t>
+  </si>
+  <si>
+    <t>(of the) forest</t>
+  </si>
+  <si>
+    <t>(S) letadlo</t>
+  </si>
+  <si>
+    <t>самолёт</t>
+  </si>
+  <si>
+    <t>airplane, plane</t>
+  </si>
+  <si>
+    <t>лететь на самолёте</t>
+  </si>
+  <si>
+    <t>(S) letiště</t>
+  </si>
+  <si>
+    <t>аеропорт, летовище</t>
+  </si>
+  <si>
+    <t>(Ž) menza</t>
+  </si>
+  <si>
+    <t>їдальня (студентська), менза</t>
+  </si>
+  <si>
+    <t>canteen, refectory</t>
+  </si>
+  <si>
+    <t>(S) metro</t>
+  </si>
+  <si>
+    <t>метро</t>
+  </si>
+  <si>
+    <t>subway, metro, underground</t>
+  </si>
+  <si>
+    <t>їхати на метро</t>
+  </si>
+  <si>
+    <t>to go by subway, to take the metro</t>
+  </si>
+  <si>
+    <t>радіти (чомусь), мати радість з (чогось)</t>
+  </si>
+  <si>
+    <t>радоваться (чему-то), иметь радость от</t>
+  </si>
+  <si>
+    <t>to be happy about, to be glad of</t>
+  </si>
+  <si>
+    <t>боятися (чогось), мати страх перед (чимось)</t>
+  </si>
+  <si>
+    <t>бояться (чего-то), иметь страх перед</t>
+  </si>
+  <si>
+    <t>могти</t>
+  </si>
+  <si>
+    <t>мочь</t>
+  </si>
+  <si>
+    <t>я можу, можу</t>
+  </si>
+  <si>
+    <t>я могу, могу</t>
+  </si>
+  <si>
+    <t>I can, I am able to</t>
+  </si>
+  <si>
+    <t>я можу, можу (більш форм.)</t>
+  </si>
+  <si>
+    <t>я могу, могу (более формально)</t>
+  </si>
+  <si>
+    <t>I can, I am able to (more formal)</t>
+  </si>
+  <si>
+    <t>(M) most</t>
+  </si>
+  <si>
+    <t>(M) možný</t>
+  </si>
+  <si>
+    <t>possible (male)</t>
+  </si>
+  <si>
+    <t>(Ž) možná</t>
+  </si>
+  <si>
+    <t>possible (female)</t>
+  </si>
+  <si>
+    <t>(S) možné</t>
+  </si>
+  <si>
+    <t>possible (neuter)</t>
+  </si>
+  <si>
+    <t>мусити, бути змушеним</t>
+  </si>
+  <si>
+    <t>быть должным, долженствовать</t>
+  </si>
+  <si>
+    <t>Можеш мені допомогти?</t>
+  </si>
+  <si>
+    <t>Можешь мне помочь?</t>
+  </si>
+  <si>
+    <t>Можете мені допомогти?</t>
+  </si>
+  <si>
+    <t>Можете мне помочь?</t>
+  </si>
+  <si>
+    <t>Can you help me? (formal)</t>
+  </si>
+  <si>
+    <t>Можеш нам допомогти?</t>
+  </si>
+  <si>
+    <t>Можешь нам помочь?</t>
+  </si>
+  <si>
+    <t>Можете нам допомогти?</t>
+  </si>
+  <si>
+    <t>Можете нам помочь?</t>
+  </si>
+  <si>
+    <t>Can you help us? (formal)</t>
+  </si>
+  <si>
+    <t>Можу тобі допомогти?</t>
+  </si>
+  <si>
+    <t>Могу тебе помочь?</t>
+  </si>
+  <si>
+    <t>Можу вам допомогти?</t>
+  </si>
+  <si>
+    <t>Могу вам помочь?</t>
+  </si>
+  <si>
+    <t>Can I help you? (formal)</t>
+  </si>
+  <si>
+    <t>митися, вмиватися</t>
+  </si>
+  <si>
+    <t>мыться, умываться</t>
+  </si>
+  <si>
+    <t>я миюся, я вмиваюся, миюся</t>
+  </si>
+  <si>
+    <t>я моюсь, я умываюсь, моюсь</t>
+  </si>
+  <si>
+    <t>I am washing (myself)</t>
+  </si>
+  <si>
+    <t>на розі (вулиці)</t>
+  </si>
+  <si>
+    <t>(S) nádraží</t>
+  </si>
+  <si>
+    <t>вокзал</t>
+  </si>
+  <si>
+    <t>(train/bus) station</t>
+  </si>
+  <si>
+    <t>випадково, часом</t>
+  </si>
+  <si>
+    <t>случайно, ненароком</t>
+  </si>
+  <si>
+    <t>вгору, нагору</t>
+  </si>
+  <si>
+    <t>вверх, наверх</t>
+  </si>
+  <si>
+    <t>up, upstairs</t>
+  </si>
+  <si>
+    <t>я знайду, знайду</t>
+  </si>
+  <si>
+    <t>я найду, найду</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) nákupní</t>
+  </si>
+  <si>
+    <t>торговий, для покупок</t>
+  </si>
+  <si>
+    <t>торговый, покупочный</t>
+  </si>
+  <si>
+    <t>shopping (adj)</t>
+  </si>
+  <si>
+    <t>сісти (в транспорт), зайти</t>
+  </si>
+  <si>
+    <t>сесть (в транспорт), зайти</t>
+  </si>
+  <si>
+    <t>to get on, to board</t>
+  </si>
+  <si>
+    <t>(Ž) nemocnice</t>
+  </si>
+  <si>
+    <t>(M) nutný</t>
+  </si>
+  <si>
+    <t>необхідний, потрібний</t>
+  </si>
+  <si>
+    <t>нужный, необходимый</t>
+  </si>
+  <si>
+    <t>necessary, needed (male)</t>
+  </si>
+  <si>
+    <t>(Ž) nutná</t>
+  </si>
+  <si>
+    <t>необхідна, потрібна</t>
+  </si>
+  <si>
+    <t>нужная, необходимая</t>
+  </si>
+  <si>
+    <t>necessary, needed (female)</t>
+  </si>
+  <si>
+    <t>(S) nutné</t>
+  </si>
+  <si>
+    <t>необхідне, потрібне</t>
+  </si>
+  <si>
+    <t>нужное, необходимое</t>
+  </si>
+  <si>
+    <t>necessary, needed (neuter)</t>
+  </si>
+  <si>
+    <t>(M) oběd</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>(M) obchod</t>
+  </si>
+  <si>
+    <t>магазин, крамниця</t>
+  </si>
+  <si>
+    <t>магазин</t>
+  </si>
+  <si>
+    <t>shop, store</t>
+  </si>
+  <si>
+    <t>(M) obchodní dům</t>
+  </si>
+  <si>
+    <t>універмаг, торговий дім</t>
+  </si>
+  <si>
+    <t>универмаг, торговый дом</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) obchodní</t>
+  </si>
+  <si>
+    <t>business, commercial, trade</t>
+  </si>
+  <si>
+    <t>с каких пор, с какого времени</t>
+  </si>
+  <si>
+    <t>(есть) открыто</t>
+  </si>
+  <si>
+    <t>it is open, (is) open</t>
+  </si>
+  <si>
+    <t>(M) park</t>
+  </si>
+  <si>
+    <t>(S) parkoviště</t>
+  </si>
+  <si>
+    <t>(S) pekařství</t>
+  </si>
+  <si>
+    <t>пекарня, булочна</t>
+  </si>
+  <si>
+    <t>пекарня, булочная</t>
+  </si>
+  <si>
+    <t>я п'ю, п'ю</t>
+  </si>
+  <si>
+    <t>я пью, пью</t>
+  </si>
+  <si>
+    <t>I drink, I am drinking</t>
+  </si>
+  <si>
+    <t>Ти поїдеш...?</t>
+  </si>
+  <si>
+    <t>Ты поедешь...?</t>
+  </si>
+  <si>
+    <t>Will you go (by vehicle)...? (informal)</t>
+  </si>
+  <si>
+    <t>Ви поїдете...?</t>
+  </si>
+  <si>
+    <t>Вы поедете...?</t>
+  </si>
+  <si>
+    <t>Will you go (by vehicle)...? (formal)</t>
+  </si>
+  <si>
+    <t>(Ž) policie</t>
+  </si>
+  <si>
+    <t>Допоможіть!, Рятуйте!</t>
+  </si>
+  <si>
+    <t>Помогите!, На помощь!</t>
+  </si>
+  <si>
+    <t>допомогти</t>
+  </si>
+  <si>
+    <t>помочь</t>
+  </si>
+  <si>
+    <t>я допоможу, допоможу</t>
+  </si>
+  <si>
+    <t>я помогу, помогу</t>
+  </si>
+  <si>
+    <t>я допоможу, допоможу (більш форм.)</t>
+  </si>
+  <si>
+    <t>я помогу, помогу (более формально)</t>
+  </si>
+  <si>
+    <t>I will help (more formal)</t>
+  </si>
+  <si>
+    <t>(M) Rád ti pomůžu.</t>
+  </si>
+  <si>
+    <t>I'll be glad to help you. (male, informal)</t>
+  </si>
+  <si>
+    <t>(Ž) Ráda ti pomůžu.</t>
+  </si>
+  <si>
+    <t>I'll be glad to help you. (female, informal)</t>
+  </si>
+  <si>
+    <t>(M) Rád vám pomůžu.</t>
+  </si>
+  <si>
+    <t>Я радий вам допомогти.</t>
+  </si>
+  <si>
+    <t>Я рад вам помочь.</t>
+  </si>
+  <si>
+    <t>I'll be glad to help you. (male, formal)</t>
+  </si>
+  <si>
+    <t>(Ž) Ráda vám pomůžu.</t>
+  </si>
+  <si>
+    <t>Я рада вам допомогти.</t>
+  </si>
+  <si>
+    <t>Я рада вам помочь.</t>
+  </si>
+  <si>
+    <t>I'll be glad to help you. (female, formal)</t>
+  </si>
+  <si>
+    <t>Допоможеш мені?</t>
+  </si>
+  <si>
+    <t>Поможешь мне?</t>
+  </si>
+  <si>
+    <t>Допоможете мені?</t>
+  </si>
+  <si>
+    <t>Поможете мне?</t>
+  </si>
+  <si>
+    <t>Will you help me? (formal)</t>
+  </si>
+  <si>
+    <t>Допоможеш нам?</t>
+  </si>
+  <si>
+    <t>Поможешь нам?</t>
+  </si>
+  <si>
+    <t>Допоможете нам?</t>
+  </si>
+  <si>
+    <t>Поможете нам?</t>
+  </si>
+  <si>
+    <t>Will you help us? (formal)</t>
+  </si>
+  <si>
+    <t>постійно, все ще</t>
+  </si>
+  <si>
+    <t>постоянно, всё ещё</t>
+  </si>
+  <si>
+    <t>still, always, constantly</t>
+  </si>
+  <si>
+    <t>(Ž) postel</t>
+  </si>
+  <si>
+    <t>(Ž) pošta</t>
+  </si>
+  <si>
+    <t>post office</t>
+  </si>
+  <si>
+    <t>(Ž-Pl) potraviny</t>
+  </si>
+  <si>
+    <t>продукти, продукти харчування</t>
+  </si>
+  <si>
+    <t>продукты, продукты питания</t>
+  </si>
+  <si>
+    <t>Attention!, Watch out!, Be careful!</t>
+  </si>
+  <si>
+    <t>(Ž) práce</t>
+  </si>
+  <si>
+    <t>do (Ž) práce</t>
+  </si>
+  <si>
+    <t>чудово, класно (розм.)</t>
+  </si>
+  <si>
+    <t>классно, здорово (разг.)</t>
+  </si>
+  <si>
+    <t>great, fine, cool (colloquial)</t>
+  </si>
+  <si>
+    <t>(M) program</t>
+  </si>
+  <si>
+    <t>program, schedule</t>
+  </si>
+  <si>
+    <t>бажати (собі), хотіти</t>
+  </si>
+  <si>
+    <t>желать (себе), хотеть</t>
+  </si>
+  <si>
+    <t>to wish, to wish for</t>
+  </si>
+  <si>
+    <t>я бажаю (собі), я хочу</t>
+  </si>
+  <si>
+    <t>я желаю (себе), я хочу</t>
+  </si>
+  <si>
+    <t>I wish, I would like</t>
+  </si>
+  <si>
+    <t>пересісти (на інший транспорт)</t>
+  </si>
+  <si>
+    <t>пересесть (на другой транспорт)</t>
+  </si>
+  <si>
+    <t>to transfer, to change (vehicles)</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) příští</t>
+  </si>
+  <si>
+    <t>наступний, наступна, наступне</t>
+  </si>
+  <si>
+    <t>я пишу, пишу</t>
+  </si>
+  <si>
+    <t>I write, I am writing</t>
+  </si>
+  <si>
+    <t>спрашивать, задавать вопрос</t>
+  </si>
+  <si>
+    <t>Ти підеш...?</t>
+  </si>
+  <si>
+    <t>Ты пойдёшь...?</t>
+  </si>
+  <si>
+    <t>Will you go (on foot)...? (informal)</t>
+  </si>
+  <si>
+    <t>Ви підете...?</t>
+  </si>
+  <si>
+    <t>Вы пойдёте...?</t>
+  </si>
+  <si>
+    <t>Will you go (on foot)...? (formal)</t>
+  </si>
+  <si>
+    <t>(Ž) restaurace</t>
+  </si>
+  <si>
+    <t>прямо</t>
+  </si>
+  <si>
+    <t>straight (ahead)</t>
+  </si>
+  <si>
+    <t>(Ž) řeka</t>
+  </si>
+  <si>
+    <t>зустрітися</t>
+  </si>
+  <si>
+    <t>встретиться, сойтись</t>
+  </si>
+  <si>
+    <t>to meet (up)</t>
+  </si>
+  <si>
+    <t>я зустрінуся, зустрінуся</t>
+  </si>
+  <si>
+    <t>я встречусь, встречусь</t>
+  </si>
+  <si>
+    <t>I will meet</t>
+  </si>
+  <si>
+    <t>(Ž) schůzka</t>
+  </si>
+  <si>
+    <t>зустріч (ділова), побачення</t>
+  </si>
+  <si>
+    <t>встреча (деловая), собрание, свидание</t>
+  </si>
+  <si>
+    <t>meeting, appointment, date</t>
+  </si>
+  <si>
+    <t>(M) směr</t>
+  </si>
+  <si>
+    <t>мабуть, можливо, сподіваюся</t>
+  </si>
+  <si>
+    <t>пожалуй, возможно, надеюсь</t>
+  </si>
+  <si>
+    <t>(Ž) snídaně</t>
+  </si>
+  <si>
+    <t>(Ž) stanice</t>
+  </si>
+  <si>
+    <t>станція</t>
+  </si>
+  <si>
+    <t>станция</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>(M) strach</t>
+  </si>
+  <si>
+    <t>(M) strašný</t>
+  </si>
+  <si>
+    <t>жахливий, страшний</t>
+  </si>
+  <si>
+    <t>ужасный, страшный</t>
+  </si>
+  <si>
+    <t>terrible, awful, horrible (male)</t>
+  </si>
+  <si>
+    <t>(Ž) strašná</t>
+  </si>
+  <si>
+    <t>жахлива, страшна</t>
+  </si>
+  <si>
+    <t>ужасная, страшная</t>
+  </si>
+  <si>
+    <t>terrible, awful, horrible (female)</t>
+  </si>
+  <si>
+    <t>(S) strašné</t>
+  </si>
+  <si>
+    <t>жахливе, страшне</t>
+  </si>
+  <si>
+    <t>ужасное, страшное</t>
+  </si>
+  <si>
+    <t>terrible, awful, horrible (neuter)</t>
+  </si>
+  <si>
+    <t>Стій!</t>
+  </si>
+  <si>
+    <t>Стой!</t>
+  </si>
+  <si>
+    <t>Стійте!</t>
+  </si>
+  <si>
+    <t>Стойте!</t>
+  </si>
+  <si>
+    <t>Stop! (formal)</t>
+  </si>
+  <si>
+    <t>(M) šťastný</t>
+  </si>
+  <si>
+    <t>happy, lucky (male)</t>
+  </si>
+  <si>
+    <t>(Ž) šťastná</t>
+  </si>
+  <si>
+    <t>happy, lucky (female)</t>
+  </si>
+  <si>
+    <t>(S) šťastné</t>
+  </si>
+  <si>
+    <t>happy, lucky (neuter)</t>
+  </si>
+  <si>
+    <t>он там, ось там</t>
+  </si>
+  <si>
+    <t>вон там</t>
+  </si>
+  <si>
+    <t>(M) taxík</t>
+  </si>
+  <si>
+    <t>taxi, cab</t>
+  </si>
+  <si>
+    <t>to go by taxi, to take a cab</t>
+  </si>
+  <si>
+    <t>(M) test</t>
+  </si>
+  <si>
+    <t>тест</t>
+  </si>
+  <si>
+    <t>(Ž) tramvaj</t>
+  </si>
+  <si>
+    <t>to go by tram</t>
+  </si>
+  <si>
+    <t>(M) úkol</t>
+  </si>
+  <si>
+    <t>завдання</t>
+  </si>
+  <si>
+    <t>(Ž) univerzita</t>
+  </si>
+  <si>
+    <t>(Ž) večeře</t>
+  </si>
+  <si>
+    <t>вечеря</t>
+  </si>
+  <si>
+    <t>назовні (рух)</t>
+  </si>
+  <si>
+    <t>наружу, вон (движение)</t>
+  </si>
+  <si>
+    <t>out, outside (direction)</t>
+  </si>
+  <si>
+    <t>назовні (місце), на вулиці</t>
+  </si>
+  <si>
+    <t>снаружи, на улице (место)</t>
+  </si>
+  <si>
+    <t>outside (location)</t>
+  </si>
+  <si>
+    <t>всередині, усередині (місце)</t>
+  </si>
+  <si>
+    <t>внутри (место)</t>
+  </si>
+  <si>
+    <t>inside (location)</t>
+  </si>
+  <si>
+    <t>везти</t>
+  </si>
+  <si>
+    <t>to transport, to drive (someone)</t>
+  </si>
+  <si>
+    <t>я везу, везу</t>
+  </si>
+  <si>
+    <t>I am transporting, I am driving</t>
+  </si>
+  <si>
+    <t>(M) vchod</t>
+  </si>
+  <si>
+    <t>(M) vlak</t>
+  </si>
+  <si>
+    <t>поїзд, потяг</t>
+  </si>
+  <si>
+    <t>їхати поїздом, їхати потягом</t>
+  </si>
+  <si>
+    <t>to go by train</t>
+  </si>
+  <si>
+    <t>(M) vlakový</t>
+  </si>
+  <si>
+    <t>поїзний (прикм.), залізничний</t>
+  </si>
+  <si>
+    <t>train (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) vlaková</t>
+  </si>
+  <si>
+    <t>поїзна (прикм.), залізнична</t>
+  </si>
+  <si>
+    <t>(S) vlakové</t>
+  </si>
+  <si>
+    <t>поїзне (прикм.), залізничне</t>
+  </si>
+  <si>
+    <t>(M) výborný</t>
+  </si>
+  <si>
+    <t>відмінний, чудовий</t>
+  </si>
+  <si>
+    <t>отличный, превосходный</t>
+  </si>
+  <si>
+    <t>excellent, great (male)</t>
+  </si>
+  <si>
+    <t>(Ž) výborná</t>
+  </si>
+  <si>
+    <t>відмінна, чудова</t>
+  </si>
+  <si>
+    <t>отличная, превосходная</t>
+  </si>
+  <si>
+    <t>excellent, great (female)</t>
+  </si>
+  <si>
+    <t>(S) výborné</t>
+  </si>
+  <si>
+    <t>відмінне, чудове</t>
+  </si>
+  <si>
+    <t>отличное, превосходное</t>
+  </si>
+  <si>
+    <t>excellent, great (neuter)</t>
+  </si>
+  <si>
+    <t>(M) východ</t>
+  </si>
+  <si>
+    <t>вихід, схід (сторона світу)</t>
+  </si>
+  <si>
+    <t>exit, east</t>
+  </si>
+  <si>
+    <t>(M) výlet</t>
+  </si>
+  <si>
+    <t>поїздка, екскурсія, прогулянка</t>
+  </si>
+  <si>
+    <t>поездка, экскурсия, прогулка</t>
+  </si>
+  <si>
+    <t>trip, excursion</t>
+  </si>
+  <si>
+    <t>(Ž) výstava</t>
+  </si>
+  <si>
+    <t>exhibition, exhibit</t>
+  </si>
+  <si>
+    <t>вийти (з транспорту)</t>
+  </si>
+  <si>
+    <t>выйти (из транспорта)</t>
+  </si>
+  <si>
+    <t>to get off, to exit</t>
+  </si>
+  <si>
+    <t>Ти повернеш..., Повернеш...</t>
+  </si>
+  <si>
+    <t>Ты повернёшь..., Повернёшь...</t>
+  </si>
+  <si>
+    <t>You will turn... (informal)</t>
+  </si>
+  <si>
+    <t>Ви повернете..., Повернете...</t>
+  </si>
+  <si>
+    <t>Вы повернёте..., Повернёте...</t>
+  </si>
+  <si>
+    <t>You will turn... (formal)</t>
+  </si>
+  <si>
+    <t>(Ž) zastávka</t>
+  </si>
+  <si>
+    <t>stop (bus/tram stop)</t>
+  </si>
+  <si>
+    <t>(есть) закрыто</t>
+  </si>
+  <si>
+    <t>it is closed, (is) closed</t>
+  </si>
+  <si>
+    <t>спросить</t>
+  </si>
+  <si>
+    <t>назад</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>загубитися</t>
+  </si>
+  <si>
+    <t>взяти участь</t>
+  </si>
+  <si>
+    <t>to participate, to take part</t>
+  </si>
+  <si>
+    <t>I am inviting, I am calling</t>
+  </si>
+  <si>
+    <t>жити</t>
+  </si>
+  <si>
+    <t>жить</t>
+  </si>
+  <si>
+    <t>я живу, живу</t>
+  </si>
+  <si>
+    <t>I live, I am living</t>
   </si>
 </sst>
 </file>
@@ -2911,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,198 +3004,198 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>367</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>368</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>371</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>372</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>373</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>374</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>376</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>378</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>380</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>381</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>382</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>383</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>385</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>388</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>84</v>
+        <v>390</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3125,41 +3203,41 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>391</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>93</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>396</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>398</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>97</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3167,13 +3245,13 @@
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3181,69 +3259,69 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>103</v>
+        <v>402</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>104</v>
+        <v>404</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>405</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>407</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>116</v>
+        <v>409</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>117</v>
+        <v>409</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3251,55 +3329,55 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>119</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>121</v>
+        <v>412</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>413</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>124</v>
+        <v>415</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>127</v>
+        <v>417</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>129</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3307,13 +3385,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>132</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3321,13 +3399,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>133</v>
+        <v>420</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>134</v>
+        <v>421</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>135</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3335,13 +3413,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>138</v>
+        <v>423</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3349,13 +3427,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>140</v>
+        <v>425</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>141</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3363,41 +3441,41 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>142</v>
+        <v>427</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>143</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>144</v>
+        <v>429</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>148</v>
+        <v>430</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>149</v>
+        <v>431</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>150</v>
+        <v>432</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>151</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3405,13 +3483,13 @@
         <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>154</v>
+        <v>84</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3419,13 +3497,13 @@
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>156</v>
+        <v>435</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>157</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3433,349 +3511,349 @@
         <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>158</v>
+        <v>437</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>159</v>
+        <v>438</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>161</v>
+        <v>440</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>162</v>
+        <v>441</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>163</v>
+        <v>442</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>164</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>165</v>
+        <v>444</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>166</v>
+        <v>445</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>167</v>
+        <v>446</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>169</v>
+        <v>447</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>170</v>
+        <v>448</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>172</v>
+        <v>449</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>173</v>
+        <v>451</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>170</v>
+        <v>452</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>174</v>
+        <v>453</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>175</v>
+        <v>455</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>178</v>
+        <v>456</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>181</v>
+        <v>457</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>183</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>184</v>
+        <v>459</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>185</v>
+        <v>460</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>186</v>
+        <v>461</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>187</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>188</v>
+        <v>463</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>191</v>
+        <v>464</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>192</v>
+        <v>465</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>193</v>
+        <v>466</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>194</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>196</v>
+        <v>468</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>197</v>
+        <v>469</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>198</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>201</v>
+        <v>471</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>202</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>204</v>
+        <v>473</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>205</v>
+        <v>474</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>206</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>208</v>
+        <v>476</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>208</v>
+        <v>476</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>210</v>
+        <v>477</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>211</v>
+        <v>478</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>213</v>
+        <v>479</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>215</v>
+        <v>481</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>216</v>
+        <v>482</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>217</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>219</v>
+        <v>483</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>221</v>
+        <v>484</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>223</v>
+        <v>486</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>224</v>
+        <v>487</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>226</v>
+        <v>489</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>227</v>
+        <v>490</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>228</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>230</v>
+        <v>492</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>231</v>
+        <v>493</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>232</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>234</v>
+        <v>495</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>235</v>
+        <v>496</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>236</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>237</v>
+        <v>498</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>238</v>
+        <v>499</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>240</v>
+        <v>107</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>241</v>
+        <v>501</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>242</v>
+        <v>502</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>240</v>
+        <v>108</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>244</v>
+        <v>504</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>245</v>
+        <v>505</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>240</v>
+        <v>109</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3783,615 +3861,615 @@
         <v>14</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>248</v>
+        <v>507</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>249</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>251</v>
+        <v>509</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>252</v>
+        <v>510</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>253</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>255</v>
+        <v>512</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>257</v>
+        <v>513</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>258</v>
+        <v>515</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>259</v>
+        <v>516</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>261</v>
+        <v>113</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>262</v>
+        <v>518</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>263</v>
+        <v>519</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>261</v>
+        <v>114</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>265</v>
+        <v>521</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>266</v>
+        <v>522</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>261</v>
+        <v>115</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>268</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>269</v>
+        <v>524</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>270</v>
+        <v>525</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>271</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>272</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>273</v>
+        <v>526</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>275</v>
+        <v>527</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>276</v>
+        <v>529</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>277</v>
+        <v>530</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>278</v>
+        <v>531</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>279</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>280</v>
+        <v>532</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>281</v>
+        <v>120</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>283</v>
+        <v>121</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>284</v>
+        <v>534</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>286</v>
+        <v>123</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>287</v>
+        <v>535</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>288</v>
+        <v>536</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>289</v>
+        <v>537</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>290</v>
+        <v>124</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>291</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>292</v>
+        <v>538</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>293</v>
+        <v>126</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>294</v>
+        <v>127</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>296</v>
+        <v>539</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>297</v>
+        <v>540</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>298</v>
+        <v>541</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>299</v>
+        <v>542</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>300</v>
+        <v>543</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>302</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>303</v>
+        <v>544</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>304</v>
+        <v>131</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>305</v>
+        <v>545</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>307</v>
+        <v>546</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>308</v>
+        <v>547</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>309</v>
+        <v>548</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>310</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>311</v>
+        <v>550</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>312</v>
+        <v>133</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>312</v>
+        <v>133</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>313</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>314</v>
+        <v>552</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>316</v>
+        <v>135</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>317</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>318</v>
+        <v>554</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>319</v>
+        <v>555</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>320</v>
+        <v>556</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>321</v>
+        <v>557</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>322</v>
+        <v>558</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>324</v>
+        <v>559</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>325</v>
+        <v>560</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>326</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>328</v>
+        <v>561</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>329</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>330</v>
+        <v>562</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>331</v>
+        <v>563</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>332</v>
+        <v>140</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>333</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>334</v>
+        <v>564</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>335</v>
+        <v>565</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>338</v>
+        <v>567</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>339</v>
+        <v>568</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>341</v>
+        <v>568</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>342</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>343</v>
+        <v>570</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>344</v>
+        <v>144</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>346</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>347</v>
+        <v>572</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>348</v>
+        <v>573</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>350</v>
+        <v>146</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>351</v>
+        <v>575</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>352</v>
+        <v>576</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>353</v>
+        <v>147</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>354</v>
+        <v>577</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>355</v>
+        <v>578</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>356</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>357</v>
+        <v>149</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>358</v>
+        <v>579</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>360</v>
+        <v>580</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>361</v>
+        <v>150</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>358</v>
+        <v>582</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>360</v>
+        <v>583</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>362</v>
+        <v>585</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>363</v>
+        <v>151</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>365</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>366</v>
+        <v>586</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>367</v>
+        <v>154</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>368</v>
+        <v>155</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>369</v>
+        <v>587</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>370</v>
+        <v>588</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>371</v>
+        <v>156</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>369</v>
+        <v>157</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>373</v>
+        <v>590</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>374</v>
+        <v>158</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>369</v>
+        <v>159</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>376</v>
+        <v>160</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>377</v>
+        <v>592</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>378</v>
+        <v>593</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>379</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>380</v>
+        <v>162</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>381</v>
+        <v>594</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>382</v>
+        <v>595</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>383</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>384</v>
+        <v>164</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>385</v>
+        <v>596</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>386</v>
+        <v>597</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>387</v>
+        <v>598</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>388</v>
+        <v>165</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>389</v>
+        <v>599</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>391</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>392</v>
+        <v>167</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>393</v>
+        <v>601</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>394</v>
+        <v>602</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>395</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>396</v>
+        <v>168</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>397</v>
+        <v>604</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>398</v>
+        <v>605</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>399</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>401</v>
+        <v>606</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>402</v>
+        <v>607</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>403</v>
+        <v>608</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>404</v>
+        <v>171</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>405</v>
+        <v>609</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>406</v>
+        <v>610</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>407</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>408</v>
+        <v>173</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>409</v>
+        <v>611</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>411</v>
+        <v>612</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4399,27 +4477,27 @@
         <v>15</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>412</v>
+        <v>614</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>413</v>
+        <v>174</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>414</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>415</v>
+        <v>615</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>416</v>
+        <v>616</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>417</v>
+        <v>176</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>418</v>
+        <v>617</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4427,13 +4505,13 @@
         <v>16</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>419</v>
+        <v>618</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>420</v>
+        <v>619</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>421</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4441,181 +4519,181 @@
         <v>17</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>422</v>
+        <v>620</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>423</v>
+        <v>621</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>424</v>
+        <v>622</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>425</v>
+        <v>178</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>426</v>
+        <v>179</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>427</v>
+        <v>180</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>428</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>429</v>
+        <v>182</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>430</v>
+        <v>623</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>431</v>
+        <v>624</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>432</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>433</v>
+        <v>625</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>434</v>
+        <v>626</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>435</v>
+        <v>627</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>437</v>
+        <v>629</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>438</v>
+        <v>630</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>439</v>
+        <v>631</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>440</v>
+        <v>632</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>441</v>
+        <v>184</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>442</v>
+        <v>185</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>443</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>444</v>
+        <v>633</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>445</v>
+        <v>634</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>446</v>
+        <v>635</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>447</v>
+        <v>636</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>448</v>
+        <v>637</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>449</v>
+        <v>638</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>450</v>
+        <v>639</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>447</v>
+        <v>640</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>451</v>
+        <v>641</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>452</v>
+        <v>642</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>453</v>
+        <v>643</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>447</v>
+        <v>644</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>454</v>
+        <v>645</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>455</v>
+        <v>187</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>456</v>
+        <v>188</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>457</v>
+        <v>646</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>458</v>
+        <v>647</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>459</v>
+        <v>648</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>461</v>
+        <v>649</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>462</v>
+        <v>651</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>463</v>
+        <v>652</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>464</v>
+        <v>653</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>465</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>466</v>
+        <v>654</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>467</v>
+        <v>190</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>468</v>
+        <v>191</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>469</v>
+        <v>655</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4623,13 +4701,13 @@
         <v>19</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>470</v>
+        <v>192</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>471</v>
+        <v>656</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>472</v>
+        <v>193</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4637,181 +4715,181 @@
         <v>20</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>473</v>
+        <v>194</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>474</v>
+        <v>195</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>475</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>476</v>
+        <v>197</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>477</v>
+        <v>198</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>478</v>
+        <v>199</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>479</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>480</v>
+        <v>201</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>477</v>
+        <v>198</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>481</v>
+        <v>657</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>482</v>
+        <v>659</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>483</v>
+        <v>203</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>483</v>
+        <v>203</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>482</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>484</v>
+        <v>660</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>485</v>
+        <v>204</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>485</v>
+        <v>204</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>486</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>487</v>
+        <v>661</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>488</v>
+        <v>662</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>488</v>
+        <v>663</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>489</v>
+        <v>206</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>490</v>
+        <v>207</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>491</v>
+        <v>208</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>492</v>
+        <v>209</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>493</v>
+        <v>210</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>494</v>
+        <v>211</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>495</v>
+        <v>212</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>496</v>
+        <v>213</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>497</v>
+        <v>214</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>498</v>
+        <v>215</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>499</v>
+        <v>216</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>500</v>
+        <v>217</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>501</v>
+        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>502</v>
+        <v>219</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>503</v>
+        <v>664</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>505</v>
+        <v>665</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>506</v>
+        <v>220</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>507</v>
+        <v>667</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>508</v>
+        <v>668</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>509</v>
+        <v>669</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>510</v>
+        <v>221</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>511</v>
+        <v>670</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>512</v>
+        <v>671</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>513</v>
+        <v>672</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>514</v>
+        <v>673</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>515</v>
+        <v>222</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>516</v>
+        <v>223</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>517</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4819,195 +4897,195 @@
         <v>21</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>518</v>
+        <v>674</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>519</v>
+        <v>675</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>520</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>521</v>
+        <v>226</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>522</v>
+        <v>676</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>523</v>
+        <v>677</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>524</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>525</v>
+        <v>228</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>526</v>
+        <v>678</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>527</v>
+        <v>679</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>529</v>
+        <v>230</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>526</v>
+        <v>680</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>528</v>
+        <v>681</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>396</v>
+        <v>168</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>397</v>
+        <v>604</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>398</v>
+        <v>605</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>399</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>401</v>
+        <v>606</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>402</v>
+        <v>607</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>403</v>
+        <v>608</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>530</v>
+        <v>683</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>531</v>
+        <v>231</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>532</v>
+        <v>232</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>533</v>
+        <v>684</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>534</v>
+        <v>685</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>535</v>
+        <v>233</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>536</v>
+        <v>234</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>537</v>
+        <v>686</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>538</v>
+        <v>687</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>539</v>
+        <v>688</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>540</v>
+        <v>689</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>541</v>
+        <v>690</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>542</v>
+        <v>691</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>543</v>
+        <v>692</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>544</v>
+        <v>693</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>545</v>
+        <v>694</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>546</v>
+        <v>235</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>547</v>
+        <v>695</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>549</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>550</v>
+        <v>237</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>551</v>
+        <v>697</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>552</v>
+        <v>698</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>553</v>
+        <v>699</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>554</v>
+        <v>238</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>555</v>
+        <v>700</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>556</v>
+        <v>701</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>557</v>
+        <v>239</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>558</v>
+        <v>240</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>559</v>
+        <v>702</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>560</v>
+        <v>703</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>561</v>
+        <v>704</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5015,55 +5093,55 @@
         <v>22</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>562</v>
+        <v>705</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>563</v>
+        <v>706</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>564</v>
+        <v>707</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>565</v>
+        <v>708</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>566</v>
+        <v>241</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>567</v>
+        <v>242</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>568</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>569</v>
+        <v>709</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>570</v>
+        <v>244</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>571</v>
+        <v>245</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>572</v>
+        <v>710</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>573</v>
+        <v>711</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>574</v>
+        <v>712</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>575</v>
+        <v>713</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>576</v>
+        <v>246</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,55 +5149,55 @@
         <v>23</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>577</v>
+        <v>247</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>578</v>
+        <v>248</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>579</v>
+        <v>714</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>580</v>
+        <v>249</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>581</v>
+        <v>250</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>582</v>
+        <v>251</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>583</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>584</v>
+        <v>715</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>585</v>
+        <v>253</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>586</v>
+        <v>254</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>587</v>
+        <v>255</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>588</v>
+        <v>716</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>589</v>
+        <v>256</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>590</v>
+        <v>257</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>591</v>
+        <v>258</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,27 +5205,27 @@
         <v>24</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>592</v>
+        <v>717</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>593</v>
+        <v>718</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>594</v>
+        <v>719</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>595</v>
+        <v>720</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>596</v>
+        <v>259</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>595</v>
+        <v>260</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,41 +5233,41 @@
         <v>25</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>598</v>
+        <v>261</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>599</v>
+        <v>262</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>600</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>601</v>
+        <v>264</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>602</v>
+        <v>722</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>603</v>
+        <v>723</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>604</v>
+        <v>724</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>605</v>
+        <v>265</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>606</v>
+        <v>725</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>608</v>
+        <v>726</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,139 +5275,139 @@
         <v>26</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>609</v>
+        <v>728</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>610</v>
+        <v>729</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>611</v>
+        <v>730</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>612</v>
+        <v>731</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>613</v>
+        <v>732</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>614</v>
+        <v>266</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>615</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>616</v>
+        <v>268</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>617</v>
+        <v>269</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>618</v>
+        <v>270</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>619</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>620</v>
+        <v>272</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>621</v>
+        <v>733</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>622</v>
+        <v>733</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>623</v>
+        <v>273</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>624</v>
+        <v>274</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>626</v>
+        <v>735</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>627</v>
+        <v>275</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>628</v>
+        <v>736</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>629</v>
+        <v>737</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>630</v>
+        <v>738</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>631</v>
+        <v>276</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>632</v>
+        <v>739</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>633</v>
+        <v>740</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>634</v>
+        <v>741</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>530</v>
+        <v>683</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>531</v>
+        <v>231</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>532</v>
+        <v>232</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>533</v>
+        <v>684</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>534</v>
+        <v>685</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>535</v>
+        <v>233</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>536</v>
+        <v>234</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>537</v>
+        <v>686</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>635</v>
+        <v>742</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>636</v>
+        <v>277</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>636</v>
+        <v>277</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>637</v>
+        <v>278</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,83 +5415,83 @@
         <v>27</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>638</v>
+        <v>743</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>640</v>
+        <v>743</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>641</v>
+        <v>745</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>642</v>
+        <v>279</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>643</v>
+        <v>280</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>644</v>
+        <v>281</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>645</v>
+        <v>282</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>646</v>
+        <v>746</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>648</v>
+        <v>747</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>649</v>
+        <v>283</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>650</v>
+        <v>749</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>651</v>
+        <v>750</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>653</v>
+        <v>752</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>654</v>
+        <v>753</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>655</v>
+        <v>754</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>656</v>
+        <v>755</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>657</v>
+        <v>756</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>658</v>
+        <v>284</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>659</v>
+        <v>285</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>660</v>
+        <v>286</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,139 +5499,139 @@
         <v>28</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>661</v>
+        <v>757</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>662</v>
+        <v>758</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>663</v>
+        <v>287</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>664</v>
+        <v>759</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>665</v>
+        <v>288</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>666</v>
+        <v>289</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>667</v>
+        <v>290</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>668</v>
+        <v>760</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>669</v>
+        <v>761</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>670</v>
+        <v>762</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>671</v>
+        <v>763</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>672</v>
+        <v>764</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>673</v>
+        <v>291</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>673</v>
+        <v>291</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>350</v>
+        <v>146</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>351</v>
+        <v>575</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>352</v>
+        <v>576</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>675</v>
+        <v>765</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>676</v>
+        <v>766</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>678</v>
+        <v>767</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>679</v>
+        <v>769</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>678</v>
+        <v>771</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>682</v>
+        <v>773</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>683</v>
+        <v>774</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>678</v>
+        <v>775</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>685</v>
+        <v>293</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>686</v>
+        <v>777</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>687</v>
+        <v>778</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>688</v>
+        <v>294</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>689</v>
+        <v>295</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>690</v>
+        <v>779</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>692</v>
+        <v>780</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5561,55 +5639,55 @@
         <v>29</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>693</v>
+        <v>782</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>694</v>
+        <v>296</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>696</v>
+        <v>297</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>697</v>
+        <v>784</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>698</v>
+        <v>298</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>696</v>
+        <v>299</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>700</v>
+        <v>786</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>701</v>
+        <v>300</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>696</v>
+        <v>301</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5617,125 +5695,125 @@
         <v>30</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>703</v>
+        <v>788</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>704</v>
+        <v>789</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>705</v>
+        <v>302</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>706</v>
+        <v>790</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>707</v>
+        <v>303</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>708</v>
+        <v>304</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>709</v>
+        <v>791</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>710</v>
+        <v>305</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>711</v>
+        <v>306</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>712</v>
+        <v>307</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>713</v>
+        <v>792</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>714</v>
+        <v>793</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>715</v>
+        <v>794</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>716</v>
+        <v>794</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>714</v>
+        <v>308</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>717</v>
+        <v>795</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>718</v>
+        <v>309</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>718</v>
+        <v>309</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>719</v>
+        <v>310</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>720</v>
+        <v>311</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>721</v>
+        <v>312</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>723</v>
+        <v>313</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>726</v>
+        <v>314</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>727</v>
+        <v>315</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>728</v>
+        <v>799</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>729</v>
+        <v>316</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>730</v>
+        <v>317</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>731</v>
+        <v>318</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>732</v>
+        <v>800</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>733</v>
+        <v>801</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>734</v>
+        <v>319</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>735</v>
+        <v>320</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5743,13 +5821,13 @@
         <v>31</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>736</v>
+        <v>802</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>737</v>
+        <v>803</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>738</v>
+        <v>804</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5757,447 +5835,447 @@
         <v>32</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>739</v>
+        <v>805</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>740</v>
+        <v>806</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>741</v>
+        <v>807</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>742</v>
+        <v>321</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>743</v>
+        <v>808</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>744</v>
+        <v>809</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>745</v>
+        <v>810</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>746</v>
+        <v>322</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>743</v>
+        <v>808</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>744</v>
+        <v>809</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>745</v>
+        <v>810</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>747</v>
+        <v>323</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>748</v>
+        <v>811</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>750</v>
+        <v>812</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>751</v>
+        <v>324</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>752</v>
+        <v>813</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>752</v>
+        <v>813</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>753</v>
+        <v>814</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>33</v>
+        <v>815</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>754</v>
+        <v>325</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>755</v>
+        <v>326</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>756</v>
+        <v>327</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>758</v>
+        <v>817</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>759</v>
+        <v>328</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>760</v>
+        <v>329</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>761</v>
+        <v>330</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>762</v>
+        <v>818</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>764</v>
+        <v>331</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>765</v>
+        <v>820</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>766</v>
+        <v>821</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>767</v>
+        <v>332</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>768</v>
+        <v>822</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>769</v>
+        <v>823</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>770</v>
+        <v>824</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>771</v>
+        <v>333</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>768</v>
+        <v>822</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>772</v>
+        <v>825</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>773</v>
+        <v>826</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>774</v>
+        <v>334</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>775</v>
+        <v>827</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>776</v>
+        <v>828</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>777</v>
+        <v>829</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>782</v>
+        <v>835</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>783</v>
+        <v>836</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>784</v>
+        <v>837</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>778</v>
+        <v>838</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>34</v>
+        <v>839</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>785</v>
+        <v>840</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>787</v>
+        <v>335</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>788</v>
+        <v>842</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>789</v>
+        <v>843</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>791</v>
+        <v>844</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>792</v>
+        <v>846</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>793</v>
+        <v>336</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>795</v>
+        <v>337</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>796</v>
+        <v>848</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>798</v>
+        <v>849</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>799</v>
+        <v>338</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>800</v>
+        <v>851</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>801</v>
+        <v>852</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>802</v>
+        <v>853</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>803</v>
+        <v>339</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>804</v>
+        <v>854</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>805</v>
+        <v>855</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>806</v>
+        <v>856</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>807</v>
+        <v>857</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>808</v>
+        <v>340</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>810</v>
+        <v>341</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>811</v>
+        <v>342</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>812</v>
+        <v>343</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>813</v>
+        <v>344</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>814</v>
+        <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>815</v>
+        <v>346</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>812</v>
+        <v>343</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>816</v>
+        <v>859</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>817</v>
+        <v>347</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>818</v>
+        <v>348</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>820</v>
+        <v>349</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>821</v>
+        <v>862</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>823</v>
+        <v>350</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>821</v>
+        <v>862</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>823</v>
+        <v>350</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>824</v>
+        <v>864</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>825</v>
+        <v>351</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>826</v>
+        <v>352</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>827</v>
+        <v>353</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>828</v>
+        <v>865</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>829</v>
+        <v>354</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>830</v>
+        <v>866</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>831</v>
+        <v>355</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>832</v>
+        <v>356</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>833</v>
+        <v>357</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>834</v>
+        <v>358</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>835</v>
+        <v>359</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>836</v>
+        <v>360</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>838</v>
+        <v>361</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>839</v>
+        <v>362</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>842</v>
+        <v>363</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>843</v>
+        <v>364</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>845</v>
+        <v>871</v>
       </c>
     </row>
   </sheetData>
